--- a/Bash Scripts/output/CAN_test_results.xlsx
+++ b/Bash Scripts/output/CAN_test_results.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C802"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,21 +402,21 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>73186824</v>
+        <v>51564751</v>
       </c>
       <c r="B2">
-        <v>73186832</v>
+        <v>51564758</v>
       </c>
       <c r="C2">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>73186832</v>
+        <v>51564758</v>
       </c>
       <c r="B3">
-        <v>73186839</v>
+        <v>51564765</v>
       </c>
       <c r="C3">
         <v>0.007</v>
@@ -424,21 +424,21 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>73186839</v>
+        <v>51564765</v>
       </c>
       <c r="B4">
-        <v>73186847</v>
+        <v>51564775</v>
       </c>
       <c r="C4">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>73186847</v>
+        <v>51564775</v>
       </c>
       <c r="B5">
-        <v>73186856</v>
+        <v>51564784</v>
       </c>
       <c r="C5">
         <v>0.008999999999999999</v>
@@ -446,54 +446,54 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>73186856</v>
+        <v>51564784</v>
       </c>
       <c r="B6">
-        <v>73186865</v>
+        <v>51564795</v>
       </c>
       <c r="C6">
-        <v>0.008999999999999999</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>73186865</v>
+        <v>51564795</v>
       </c>
       <c r="B7">
-        <v>73186875</v>
+        <v>51564804</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>73186875</v>
+        <v>51564804</v>
       </c>
       <c r="B8">
-        <v>73186884</v>
+        <v>51564814</v>
       </c>
       <c r="C8">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>73186884</v>
+        <v>51564814</v>
       </c>
       <c r="B9">
-        <v>73186895</v>
+        <v>51564823</v>
       </c>
       <c r="C9">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>73186895</v>
+        <v>51564823</v>
       </c>
       <c r="B10">
-        <v>73186904</v>
+        <v>51564832</v>
       </c>
       <c r="C10">
         <v>0.008999999999999999</v>
@@ -501,21 +501,21 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>73186904</v>
+        <v>51564833</v>
       </c>
       <c r="B11">
-        <v>73186913</v>
+        <v>51564843</v>
       </c>
       <c r="C11">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>73186913</v>
+        <v>51564843</v>
       </c>
       <c r="B12">
-        <v>73186922</v>
+        <v>51564852</v>
       </c>
       <c r="C12">
         <v>0.008999999999999999</v>
@@ -523,43 +523,43 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>73186922</v>
+        <v>51564852</v>
       </c>
       <c r="B13">
-        <v>73186930</v>
+        <v>51564861</v>
       </c>
       <c r="C13">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>73186930</v>
+        <v>51564861</v>
       </c>
       <c r="B14">
-        <v>73186937</v>
+        <v>51564869</v>
       </c>
       <c r="C14">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>73186937</v>
+        <v>51564869</v>
       </c>
       <c r="B15">
-        <v>73186943</v>
+        <v>51564876</v>
       </c>
       <c r="C15">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>73186943</v>
+        <v>51564876</v>
       </c>
       <c r="B16">
-        <v>73186950</v>
+        <v>51564883</v>
       </c>
       <c r="C16">
         <v>0.007</v>
@@ -567,21 +567,21 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>73186950</v>
+        <v>51564883</v>
       </c>
       <c r="B17">
-        <v>73186957</v>
+        <v>51564889</v>
       </c>
       <c r="C17">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>73186957</v>
+        <v>51564889</v>
       </c>
       <c r="B18">
-        <v>73186964</v>
+        <v>51564896</v>
       </c>
       <c r="C18">
         <v>0.007</v>
@@ -589,21 +589,21 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>73186964</v>
+        <v>51564896</v>
       </c>
       <c r="B19">
-        <v>73186970</v>
+        <v>51564903</v>
       </c>
       <c r="C19">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>73186970</v>
+        <v>51564903</v>
       </c>
       <c r="B20">
-        <v>73186977</v>
+        <v>51564910</v>
       </c>
       <c r="C20">
         <v>0.007</v>
@@ -611,21 +611,21 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>73186977</v>
+        <v>51564910</v>
       </c>
       <c r="B21">
-        <v>73186984</v>
+        <v>51564918</v>
       </c>
       <c r="C21">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>73186984</v>
+        <v>51564918</v>
       </c>
       <c r="B22">
-        <v>73186991</v>
+        <v>51564925</v>
       </c>
       <c r="C22">
         <v>0.007</v>
@@ -633,10 +633,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>73186991</v>
+        <v>51564925</v>
       </c>
       <c r="B23">
-        <v>73186998</v>
+        <v>51564932</v>
       </c>
       <c r="C23">
         <v>0.007</v>
@@ -644,32 +644,32 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>73186998</v>
+        <v>51564932</v>
       </c>
       <c r="B24">
-        <v>73187004</v>
+        <v>51564939</v>
       </c>
       <c r="C24">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>73187004</v>
+        <v>51564939</v>
       </c>
       <c r="B25">
-        <v>73187011</v>
+        <v>51564947</v>
       </c>
       <c r="C25">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>73187011</v>
+        <v>51564947</v>
       </c>
       <c r="B26">
-        <v>73187018</v>
+        <v>51564954</v>
       </c>
       <c r="C26">
         <v>0.007</v>
@@ -677,21 +677,21 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>73187018</v>
+        <v>51564954</v>
       </c>
       <c r="B27">
-        <v>73187024</v>
+        <v>51564962</v>
       </c>
       <c r="C27">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>73187024</v>
+        <v>51564962</v>
       </c>
       <c r="B28">
-        <v>73187031</v>
+        <v>51564969</v>
       </c>
       <c r="C28">
         <v>0.007</v>
@@ -699,43 +699,43 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>73187031</v>
+        <v>51564969</v>
       </c>
       <c r="B29">
-        <v>73187038</v>
+        <v>51564977</v>
       </c>
       <c r="C29">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>73187038</v>
+        <v>51564977</v>
       </c>
       <c r="B30">
-        <v>73187044</v>
+        <v>51564984</v>
       </c>
       <c r="C30">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>73187044</v>
+        <v>51564984</v>
       </c>
       <c r="B31">
-        <v>73187051</v>
+        <v>51564990</v>
       </c>
       <c r="C31">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>73187051</v>
+        <v>51564990</v>
       </c>
       <c r="B32">
-        <v>73187058</v>
+        <v>51564997</v>
       </c>
       <c r="C32">
         <v>0.007</v>
@@ -743,10 +743,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>73187058</v>
+        <v>51564997</v>
       </c>
       <c r="B33">
-        <v>73187065</v>
+        <v>51565004</v>
       </c>
       <c r="C33">
         <v>0.007</v>
@@ -754,54 +754,54 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>73187065</v>
+        <v>51565004</v>
       </c>
       <c r="B34">
-        <v>73187072</v>
+        <v>51565012</v>
       </c>
       <c r="C34">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>73187072</v>
+        <v>51565012</v>
       </c>
       <c r="B35">
-        <v>73187078</v>
+        <v>51565019</v>
       </c>
       <c r="C35">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>73187078</v>
+        <v>51565019</v>
       </c>
       <c r="B36">
-        <v>73187085</v>
+        <v>51565027</v>
       </c>
       <c r="C36">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>73187085</v>
+        <v>51565027</v>
       </c>
       <c r="B37">
-        <v>73187091</v>
+        <v>51565034</v>
       </c>
       <c r="C37">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>73187091</v>
+        <v>51565034</v>
       </c>
       <c r="B38">
-        <v>73187099</v>
+        <v>51565042</v>
       </c>
       <c r="C38">
         <v>0.008</v>
@@ -809,21 +809,21 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>73187099</v>
+        <v>51565042</v>
       </c>
       <c r="B39">
-        <v>73187105</v>
+        <v>51565049</v>
       </c>
       <c r="C39">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>73187105</v>
+        <v>51565049</v>
       </c>
       <c r="B40">
-        <v>73187112</v>
+        <v>51565056</v>
       </c>
       <c r="C40">
         <v>0.007</v>
@@ -831,21 +831,21 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>73187112</v>
+        <v>51565056</v>
       </c>
       <c r="B41">
-        <v>73187119</v>
+        <v>51565064</v>
       </c>
       <c r="C41">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>73187119</v>
+        <v>51565064</v>
       </c>
       <c r="B42">
-        <v>73187126</v>
+        <v>51565071</v>
       </c>
       <c r="C42">
         <v>0.007</v>
@@ -853,65 +853,65 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>73187126</v>
+        <v>51565071</v>
       </c>
       <c r="B43">
-        <v>73187133</v>
+        <v>51565077</v>
       </c>
       <c r="C43">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>73187133</v>
+        <v>51565077</v>
       </c>
       <c r="B44">
-        <v>73187139</v>
+        <v>51565085</v>
       </c>
       <c r="C44">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>73187139</v>
+        <v>51565085</v>
       </c>
       <c r="B45">
-        <v>73187146</v>
+        <v>51565091</v>
       </c>
       <c r="C45">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>73187146</v>
+        <v>51565091</v>
       </c>
       <c r="B46">
-        <v>73187152</v>
+        <v>51565098</v>
       </c>
       <c r="C46">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>73187152</v>
+        <v>51565098</v>
       </c>
       <c r="B47">
-        <v>73187159</v>
+        <v>51565104</v>
       </c>
       <c r="C47">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>73187159</v>
+        <v>51565104</v>
       </c>
       <c r="B48">
-        <v>73187166</v>
+        <v>51565111</v>
       </c>
       <c r="C48">
         <v>0.007</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>73187166</v>
+        <v>51565111</v>
       </c>
       <c r="B49">
-        <v>73187173</v>
+        <v>51565118</v>
       </c>
       <c r="C49">
         <v>0.007</v>
@@ -930,10 +930,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>73187173</v>
+        <v>51565118</v>
       </c>
       <c r="B50">
-        <v>73187180</v>
+        <v>51565125</v>
       </c>
       <c r="C50">
         <v>0.007</v>
@@ -941,54 +941,54 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>73187180</v>
+        <v>51565125</v>
       </c>
       <c r="B51">
-        <v>73187187</v>
+        <v>51565133</v>
       </c>
       <c r="C51">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>73187187</v>
+        <v>51565133</v>
       </c>
       <c r="B52">
-        <v>73187193</v>
+        <v>51565140</v>
       </c>
       <c r="C52">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>73187193</v>
+        <v>51565140</v>
       </c>
       <c r="B53">
-        <v>73187200</v>
+        <v>51565148</v>
       </c>
       <c r="C53">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>73187200</v>
+        <v>51565148</v>
       </c>
       <c r="B54">
-        <v>73187208</v>
+        <v>51565155</v>
       </c>
       <c r="C54">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>73187208</v>
+        <v>51565155</v>
       </c>
       <c r="B55">
-        <v>73187215</v>
+        <v>51565162</v>
       </c>
       <c r="C55">
         <v>0.007</v>
@@ -996,10 +996,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>73187215</v>
+        <v>51565162</v>
       </c>
       <c r="B56">
-        <v>73187222</v>
+        <v>51565169</v>
       </c>
       <c r="C56">
         <v>0.007</v>
@@ -1007,21 +1007,21 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>73187222</v>
+        <v>51565169</v>
       </c>
       <c r="B57">
-        <v>73187228</v>
+        <v>51565177</v>
       </c>
       <c r="C57">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>73187228</v>
+        <v>51565177</v>
       </c>
       <c r="B58">
-        <v>73187235</v>
+        <v>51565184</v>
       </c>
       <c r="C58">
         <v>0.007</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>73187235</v>
+        <v>51565184</v>
       </c>
       <c r="B59">
-        <v>73187242</v>
+        <v>51565191</v>
       </c>
       <c r="C59">
         <v>0.007</v>
@@ -1040,10 +1040,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>73187242</v>
+        <v>51565191</v>
       </c>
       <c r="B60">
-        <v>73187248</v>
+        <v>51565197</v>
       </c>
       <c r="C60">
         <v>0.006</v>
@@ -1051,10 +1051,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>73187248</v>
+        <v>51565197</v>
       </c>
       <c r="B61">
-        <v>73187254</v>
+        <v>51565203</v>
       </c>
       <c r="C61">
         <v>0.006</v>
@@ -1062,43 +1062,43 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>73187254</v>
+        <v>51565203</v>
       </c>
       <c r="B62">
-        <v>73187262</v>
+        <v>51565210</v>
       </c>
       <c r="C62">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>73187262</v>
+        <v>51565210</v>
       </c>
       <c r="B63">
-        <v>73187268</v>
+        <v>51565218</v>
       </c>
       <c r="C63">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>73187268</v>
+        <v>51565218</v>
       </c>
       <c r="B64">
-        <v>73187275</v>
+        <v>51565224</v>
       </c>
       <c r="C64">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>73187275</v>
+        <v>51565224</v>
       </c>
       <c r="B65">
-        <v>73187282</v>
+        <v>51565231</v>
       </c>
       <c r="C65">
         <v>0.007</v>
@@ -1106,10 +1106,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>73187282</v>
+        <v>51565231</v>
       </c>
       <c r="B66">
-        <v>73187289</v>
+        <v>51565238</v>
       </c>
       <c r="C66">
         <v>0.007</v>
@@ -1117,32 +1117,32 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>73187289</v>
+        <v>51565238</v>
       </c>
       <c r="B67">
-        <v>73187295</v>
+        <v>51565245</v>
       </c>
       <c r="C67">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>73187296</v>
+        <v>51565245</v>
       </c>
       <c r="B68">
-        <v>73187302</v>
+        <v>51565253</v>
       </c>
       <c r="C68">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>73187302</v>
+        <v>51565253</v>
       </c>
       <c r="B69">
-        <v>73187309</v>
+        <v>51565260</v>
       </c>
       <c r="C69">
         <v>0.007</v>
@@ -1150,65 +1150,65 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>73187309</v>
+        <v>51565260</v>
       </c>
       <c r="B70">
-        <v>73187316</v>
+        <v>51565268</v>
       </c>
       <c r="C70">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>73187316</v>
+        <v>51565268</v>
       </c>
       <c r="B71">
-        <v>73187322</v>
+        <v>51565275</v>
       </c>
       <c r="C71">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>73187322</v>
+        <v>51565275</v>
       </c>
       <c r="B72">
-        <v>73187327</v>
+        <v>51565283</v>
       </c>
       <c r="C72">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>73187328</v>
+        <v>51565283</v>
       </c>
       <c r="B73">
-        <v>73187334</v>
+        <v>51565291</v>
       </c>
       <c r="C73">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>73187334</v>
+        <v>51565291</v>
       </c>
       <c r="B74">
-        <v>73187340</v>
+        <v>51565296</v>
       </c>
       <c r="C74">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>73187340</v>
+        <v>51565296</v>
       </c>
       <c r="B75">
-        <v>73187346</v>
+        <v>51565302</v>
       </c>
       <c r="C75">
         <v>0.006</v>
@@ -1216,32 +1216,32 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>73187346</v>
+        <v>51565302</v>
       </c>
       <c r="B76">
-        <v>73187351</v>
+        <v>51565309</v>
       </c>
       <c r="C76">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>73187351</v>
+        <v>51565309</v>
       </c>
       <c r="B77">
-        <v>73187356</v>
+        <v>51565316</v>
       </c>
       <c r="C77">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>73187356</v>
+        <v>51565316</v>
       </c>
       <c r="B78">
-        <v>73187363</v>
+        <v>51565323</v>
       </c>
       <c r="C78">
         <v>0.007</v>
@@ -1249,21 +1249,21 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>73187363</v>
+        <v>51565323</v>
       </c>
       <c r="B79">
-        <v>73187370</v>
+        <v>51565331</v>
       </c>
       <c r="C79">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>73187370</v>
+        <v>51565331</v>
       </c>
       <c r="B80">
-        <v>73187377</v>
+        <v>51565338</v>
       </c>
       <c r="C80">
         <v>0.007</v>
@@ -1271,20 +1271,7940 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>73187377</v>
+        <v>51565338</v>
       </c>
       <c r="B81">
-        <v>73187384</v>
+        <v>51565345</v>
       </c>
       <c r="C81">
         <v>0.007</v>
       </c>
     </row>
     <row r="82" spans="1:3">
+      <c r="A82">
+        <v>51565345</v>
+      </c>
       <c r="B82">
-        <v>0.006975000000000005</v>
-      </c>
-      <c r="C82" t="s">
+        <v>51565353</v>
+      </c>
+      <c r="C82">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>51565353</v>
+      </c>
+      <c r="B83">
+        <v>51565360</v>
+      </c>
+      <c r="C83">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>51565360</v>
+      </c>
+      <c r="B84">
+        <v>51565367</v>
+      </c>
+      <c r="C84">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>51565367</v>
+      </c>
+      <c r="B85">
+        <v>51565373</v>
+      </c>
+      <c r="C85">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>51565373</v>
+      </c>
+      <c r="B86">
+        <v>51565380</v>
+      </c>
+      <c r="C86">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>51565380</v>
+      </c>
+      <c r="B87">
+        <v>51565387</v>
+      </c>
+      <c r="C87">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>51565387</v>
+      </c>
+      <c r="B88">
+        <v>51565394</v>
+      </c>
+      <c r="C88">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>51565394</v>
+      </c>
+      <c r="B89">
+        <v>51565399</v>
+      </c>
+      <c r="C89">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>51565399</v>
+      </c>
+      <c r="B90">
+        <v>51565407</v>
+      </c>
+      <c r="C90">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>51565407</v>
+      </c>
+      <c r="B91">
+        <v>51565413</v>
+      </c>
+      <c r="C91">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>51565413</v>
+      </c>
+      <c r="B92">
+        <v>51565420</v>
+      </c>
+      <c r="C92">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>51565420</v>
+      </c>
+      <c r="B93">
+        <v>51565428</v>
+      </c>
+      <c r="C93">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>51565428</v>
+      </c>
+      <c r="B94">
+        <v>51565435</v>
+      </c>
+      <c r="C94">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>51565435</v>
+      </c>
+      <c r="B95">
+        <v>51565443</v>
+      </c>
+      <c r="C95">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>51565443</v>
+      </c>
+      <c r="B96">
+        <v>51565450</v>
+      </c>
+      <c r="C96">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>51565450</v>
+      </c>
+      <c r="B97">
+        <v>51565458</v>
+      </c>
+      <c r="C97">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>51565458</v>
+      </c>
+      <c r="B98">
+        <v>51565465</v>
+      </c>
+      <c r="C98">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>51565465</v>
+      </c>
+      <c r="B99">
+        <v>51565470</v>
+      </c>
+      <c r="C99">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>51565470</v>
+      </c>
+      <c r="B100">
+        <v>51565478</v>
+      </c>
+      <c r="C100">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>51565478</v>
+      </c>
+      <c r="B101">
+        <v>51565485</v>
+      </c>
+      <c r="C101">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>51565485</v>
+      </c>
+      <c r="B102">
+        <v>51565492</v>
+      </c>
+      <c r="C102">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>51565492</v>
+      </c>
+      <c r="B103">
+        <v>51565499</v>
+      </c>
+      <c r="C103">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>51565499</v>
+      </c>
+      <c r="B104">
+        <v>51565505</v>
+      </c>
+      <c r="C104">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>51565505</v>
+      </c>
+      <c r="B105">
+        <v>51565512</v>
+      </c>
+      <c r="C105">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>51565512</v>
+      </c>
+      <c r="B106">
+        <v>51565519</v>
+      </c>
+      <c r="C106">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>51565519</v>
+      </c>
+      <c r="B107">
+        <v>51565527</v>
+      </c>
+      <c r="C107">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>51565527</v>
+      </c>
+      <c r="B108">
+        <v>51565534</v>
+      </c>
+      <c r="C108">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>51565534</v>
+      </c>
+      <c r="B109">
+        <v>51565542</v>
+      </c>
+      <c r="C109">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>51565542</v>
+      </c>
+      <c r="B110">
+        <v>51565549</v>
+      </c>
+      <c r="C110">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>51565549</v>
+      </c>
+      <c r="B111">
+        <v>51565556</v>
+      </c>
+      <c r="C111">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>51565556</v>
+      </c>
+      <c r="B112">
+        <v>51565564</v>
+      </c>
+      <c r="C112">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>51565564</v>
+      </c>
+      <c r="B113">
+        <v>51565571</v>
+      </c>
+      <c r="C113">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>51565571</v>
+      </c>
+      <c r="B114">
+        <v>51565579</v>
+      </c>
+      <c r="C114">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>51565579</v>
+      </c>
+      <c r="B115">
+        <v>51565586</v>
+      </c>
+      <c r="C115">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>51565586</v>
+      </c>
+      <c r="B116">
+        <v>51565594</v>
+      </c>
+      <c r="C116">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>51565594</v>
+      </c>
+      <c r="B117">
+        <v>51565600</v>
+      </c>
+      <c r="C117">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>51565600</v>
+      </c>
+      <c r="B118">
+        <v>51565606</v>
+      </c>
+      <c r="C118">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>51565606</v>
+      </c>
+      <c r="B119">
+        <v>51565613</v>
+      </c>
+      <c r="C119">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>51565613</v>
+      </c>
+      <c r="B120">
+        <v>51565621</v>
+      </c>
+      <c r="C120">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>51565621</v>
+      </c>
+      <c r="B121">
+        <v>51565628</v>
+      </c>
+      <c r="C121">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>51565628</v>
+      </c>
+      <c r="B122">
+        <v>51565636</v>
+      </c>
+      <c r="C122">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>51565636</v>
+      </c>
+      <c r="B123">
+        <v>51565643</v>
+      </c>
+      <c r="C123">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>51565643</v>
+      </c>
+      <c r="B124">
+        <v>51565650</v>
+      </c>
+      <c r="C124">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>51565650</v>
+      </c>
+      <c r="B125">
+        <v>51565658</v>
+      </c>
+      <c r="C125">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>51565658</v>
+      </c>
+      <c r="B126">
+        <v>51565665</v>
+      </c>
+      <c r="C126">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>51565665</v>
+      </c>
+      <c r="B127">
+        <v>51565672</v>
+      </c>
+      <c r="C127">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>51565672</v>
+      </c>
+      <c r="B128">
+        <v>51565679</v>
+      </c>
+      <c r="C128">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>51565679</v>
+      </c>
+      <c r="B129">
+        <v>51565686</v>
+      </c>
+      <c r="C129">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>51565686</v>
+      </c>
+      <c r="B130">
+        <v>51565693</v>
+      </c>
+      <c r="C130">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>51565693</v>
+      </c>
+      <c r="B131">
+        <v>51565700</v>
+      </c>
+      <c r="C131">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>51565700</v>
+      </c>
+      <c r="B132">
+        <v>51565706</v>
+      </c>
+      <c r="C132">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>51565706</v>
+      </c>
+      <c r="B133">
+        <v>51565713</v>
+      </c>
+      <c r="C133">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>51565713</v>
+      </c>
+      <c r="B134">
+        <v>51565720</v>
+      </c>
+      <c r="C134">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>51565720</v>
+      </c>
+      <c r="B135">
+        <v>51565727</v>
+      </c>
+      <c r="C135">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>51565727</v>
+      </c>
+      <c r="B136">
+        <v>51565735</v>
+      </c>
+      <c r="C136">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>51565735</v>
+      </c>
+      <c r="B137">
+        <v>51565741</v>
+      </c>
+      <c r="C137">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>51565741</v>
+      </c>
+      <c r="B138">
+        <v>51565748</v>
+      </c>
+      <c r="C138">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>51565748</v>
+      </c>
+      <c r="B139">
+        <v>51565756</v>
+      </c>
+      <c r="C139">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>51565756</v>
+      </c>
+      <c r="B140">
+        <v>51565763</v>
+      </c>
+      <c r="C140">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>51565763</v>
+      </c>
+      <c r="B141">
+        <v>51565771</v>
+      </c>
+      <c r="C141">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>51565771</v>
+      </c>
+      <c r="B142">
+        <v>51565778</v>
+      </c>
+      <c r="C142">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>51565778</v>
+      </c>
+      <c r="B143">
+        <v>51565785</v>
+      </c>
+      <c r="C143">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>51565785</v>
+      </c>
+      <c r="B144">
+        <v>51565792</v>
+      </c>
+      <c r="C144">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>51565792</v>
+      </c>
+      <c r="B145">
+        <v>51565800</v>
+      </c>
+      <c r="C145">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>51565800</v>
+      </c>
+      <c r="B146">
+        <v>51565806</v>
+      </c>
+      <c r="C146">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>51565806</v>
+      </c>
+      <c r="B147">
+        <v>51565812</v>
+      </c>
+      <c r="C147">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>51565812</v>
+      </c>
+      <c r="B148">
+        <v>51565820</v>
+      </c>
+      <c r="C148">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>51565820</v>
+      </c>
+      <c r="B149">
+        <v>51565827</v>
+      </c>
+      <c r="C149">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>51565827</v>
+      </c>
+      <c r="B150">
+        <v>51565834</v>
+      </c>
+      <c r="C150">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>51565834</v>
+      </c>
+      <c r="B151">
+        <v>51565841</v>
+      </c>
+      <c r="C151">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>51565841</v>
+      </c>
+      <c r="B152">
+        <v>51565848</v>
+      </c>
+      <c r="C152">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>51565848</v>
+      </c>
+      <c r="B153">
+        <v>51565854</v>
+      </c>
+      <c r="C153">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>51565854</v>
+      </c>
+      <c r="B154">
+        <v>51565862</v>
+      </c>
+      <c r="C154">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>51565862</v>
+      </c>
+      <c r="B155">
+        <v>51565869</v>
+      </c>
+      <c r="C155">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>51565869</v>
+      </c>
+      <c r="B156">
+        <v>51565877</v>
+      </c>
+      <c r="C156">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>51565877</v>
+      </c>
+      <c r="B157">
+        <v>51565884</v>
+      </c>
+      <c r="C157">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>51565884</v>
+      </c>
+      <c r="B158">
+        <v>51565892</v>
+      </c>
+      <c r="C158">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>51565892</v>
+      </c>
+      <c r="B159">
+        <v>51565899</v>
+      </c>
+      <c r="C159">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>51565899</v>
+      </c>
+      <c r="B160">
+        <v>51565907</v>
+      </c>
+      <c r="C160">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>51565907</v>
+      </c>
+      <c r="B161">
+        <v>51565912</v>
+      </c>
+      <c r="C161">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>51565912</v>
+      </c>
+      <c r="B162">
+        <v>51565920</v>
+      </c>
+      <c r="C162">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>51565920</v>
+      </c>
+      <c r="B163">
+        <v>51565927</v>
+      </c>
+      <c r="C163">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>51565927</v>
+      </c>
+      <c r="B164">
+        <v>51565933</v>
+      </c>
+      <c r="C164">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>51565933</v>
+      </c>
+      <c r="B165">
+        <v>51565941</v>
+      </c>
+      <c r="C165">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>51565941</v>
+      </c>
+      <c r="B166">
+        <v>51565949</v>
+      </c>
+      <c r="C166">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>51565949</v>
+      </c>
+      <c r="B167">
+        <v>51565956</v>
+      </c>
+      <c r="C167">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>51565956</v>
+      </c>
+      <c r="B168">
+        <v>51565963</v>
+      </c>
+      <c r="C168">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>51565963</v>
+      </c>
+      <c r="B169">
+        <v>51565971</v>
+      </c>
+      <c r="C169">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>51565971</v>
+      </c>
+      <c r="B170">
+        <v>51565979</v>
+      </c>
+      <c r="C170">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>51565979</v>
+      </c>
+      <c r="B171">
+        <v>51565986</v>
+      </c>
+      <c r="C171">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>51565986</v>
+      </c>
+      <c r="B172">
+        <v>51565993</v>
+      </c>
+      <c r="C172">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>51565993</v>
+      </c>
+      <c r="B173">
+        <v>51566000</v>
+      </c>
+      <c r="C173">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>51566000</v>
+      </c>
+      <c r="B174">
+        <v>51566007</v>
+      </c>
+      <c r="C174">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>51566007</v>
+      </c>
+      <c r="B175">
+        <v>51566013</v>
+      </c>
+      <c r="C175">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>51566013</v>
+      </c>
+      <c r="B176">
+        <v>51566020</v>
+      </c>
+      <c r="C176">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>51566020</v>
+      </c>
+      <c r="B177">
+        <v>51566027</v>
+      </c>
+      <c r="C177">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>51566027</v>
+      </c>
+      <c r="B178">
+        <v>51566035</v>
+      </c>
+      <c r="C178">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>51566035</v>
+      </c>
+      <c r="B179">
+        <v>51566042</v>
+      </c>
+      <c r="C179">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>51566042</v>
+      </c>
+      <c r="B180">
+        <v>51566049</v>
+      </c>
+      <c r="C180">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>51566049</v>
+      </c>
+      <c r="B181">
+        <v>51566057</v>
+      </c>
+      <c r="C181">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>51566057</v>
+      </c>
+      <c r="B182">
+        <v>51566064</v>
+      </c>
+      <c r="C182">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>51566064</v>
+      </c>
+      <c r="B183">
+        <v>51566072</v>
+      </c>
+      <c r="C183">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>51566072</v>
+      </c>
+      <c r="B184">
+        <v>51566079</v>
+      </c>
+      <c r="C184">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>51566079</v>
+      </c>
+      <c r="B185">
+        <v>51566086</v>
+      </c>
+      <c r="C185">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>51566086</v>
+      </c>
+      <c r="B186">
+        <v>51566094</v>
+      </c>
+      <c r="C186">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>51566094</v>
+      </c>
+      <c r="B187">
+        <v>51566102</v>
+      </c>
+      <c r="C187">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>51566102</v>
+      </c>
+      <c r="B188">
+        <v>51566109</v>
+      </c>
+      <c r="C188">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>51566109</v>
+      </c>
+      <c r="B189">
+        <v>51566115</v>
+      </c>
+      <c r="C189">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>51566115</v>
+      </c>
+      <c r="B190">
+        <v>51566120</v>
+      </c>
+      <c r="C190">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>51566120</v>
+      </c>
+      <c r="B191">
+        <v>51566128</v>
+      </c>
+      <c r="C191">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>51566128</v>
+      </c>
+      <c r="B192">
+        <v>51566136</v>
+      </c>
+      <c r="C192">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>51566136</v>
+      </c>
+      <c r="B193">
+        <v>51566143</v>
+      </c>
+      <c r="C193">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>51566143</v>
+      </c>
+      <c r="B194">
+        <v>51566150</v>
+      </c>
+      <c r="C194">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>51566150</v>
+      </c>
+      <c r="B195">
+        <v>51566158</v>
+      </c>
+      <c r="C195">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>51566158</v>
+      </c>
+      <c r="B196">
+        <v>51566165</v>
+      </c>
+      <c r="C196">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>51566165</v>
+      </c>
+      <c r="B197">
+        <v>51566172</v>
+      </c>
+      <c r="C197">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>51566172</v>
+      </c>
+      <c r="B198">
+        <v>51566180</v>
+      </c>
+      <c r="C198">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>51566180</v>
+      </c>
+      <c r="B199">
+        <v>51566187</v>
+      </c>
+      <c r="C199">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>51566187</v>
+      </c>
+      <c r="B200">
+        <v>51566194</v>
+      </c>
+      <c r="C200">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>51566194</v>
+      </c>
+      <c r="B201">
+        <v>51566201</v>
+      </c>
+      <c r="C201">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>51566201</v>
+      </c>
+      <c r="B202">
+        <v>51566208</v>
+      </c>
+      <c r="C202">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>51566208</v>
+      </c>
+      <c r="B203">
+        <v>51566215</v>
+      </c>
+      <c r="C203">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>51566215</v>
+      </c>
+      <c r="B204">
+        <v>51566221</v>
+      </c>
+      <c r="C204">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>51566221</v>
+      </c>
+      <c r="B205">
+        <v>51566228</v>
+      </c>
+      <c r="C205">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>51566228</v>
+      </c>
+      <c r="B206">
+        <v>51566235</v>
+      </c>
+      <c r="C206">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>51566235</v>
+      </c>
+      <c r="B207">
+        <v>51566243</v>
+      </c>
+      <c r="C207">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>51566243</v>
+      </c>
+      <c r="B208">
+        <v>51566250</v>
+      </c>
+      <c r="C208">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>51566250</v>
+      </c>
+      <c r="B209">
+        <v>51566258</v>
+      </c>
+      <c r="C209">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>51566258</v>
+      </c>
+      <c r="B210">
+        <v>51566265</v>
+      </c>
+      <c r="C210">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>51566265</v>
+      </c>
+      <c r="B211">
+        <v>51566272</v>
+      </c>
+      <c r="C211">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>51566272</v>
+      </c>
+      <c r="B212">
+        <v>51566280</v>
+      </c>
+      <c r="C212">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>51566280</v>
+      </c>
+      <c r="B213">
+        <v>51566287</v>
+      </c>
+      <c r="C213">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>51566287</v>
+      </c>
+      <c r="B214">
+        <v>51566294</v>
+      </c>
+      <c r="C214">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>51566294</v>
+      </c>
+      <c r="B215">
+        <v>51566301</v>
+      </c>
+      <c r="C215">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>51566301</v>
+      </c>
+      <c r="B216">
+        <v>51566308</v>
+      </c>
+      <c r="C216">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>51566308</v>
+      </c>
+      <c r="B217">
+        <v>51566316</v>
+      </c>
+      <c r="C217">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>51566316</v>
+      </c>
+      <c r="B218">
+        <v>51566321</v>
+      </c>
+      <c r="C218">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>51566321</v>
+      </c>
+      <c r="B219">
+        <v>51566328</v>
+      </c>
+      <c r="C219">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>51566328</v>
+      </c>
+      <c r="B220">
+        <v>51566335</v>
+      </c>
+      <c r="C220">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>51566335</v>
+      </c>
+      <c r="B221">
+        <v>51566342</v>
+      </c>
+      <c r="C221">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>51566342</v>
+      </c>
+      <c r="B222">
+        <v>51566349</v>
+      </c>
+      <c r="C222">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>51566349</v>
+      </c>
+      <c r="B223">
+        <v>51566357</v>
+      </c>
+      <c r="C223">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>51566357</v>
+      </c>
+      <c r="B224">
+        <v>51566364</v>
+      </c>
+      <c r="C224">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>51566364</v>
+      </c>
+      <c r="B225">
+        <v>51566371</v>
+      </c>
+      <c r="C225">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>51566371</v>
+      </c>
+      <c r="B226">
+        <v>51566379</v>
+      </c>
+      <c r="C226">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>51566379</v>
+      </c>
+      <c r="B227">
+        <v>51566387</v>
+      </c>
+      <c r="C227">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>51566387</v>
+      </c>
+      <c r="B228">
+        <v>51566393</v>
+      </c>
+      <c r="C228">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>51566393</v>
+      </c>
+      <c r="B229">
+        <v>51566401</v>
+      </c>
+      <c r="C229">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>51566401</v>
+      </c>
+      <c r="B230">
+        <v>51566408</v>
+      </c>
+      <c r="C230">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>51566408</v>
+      </c>
+      <c r="B231">
+        <v>51566415</v>
+      </c>
+      <c r="C231">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>51566415</v>
+      </c>
+      <c r="B232">
+        <v>51566422</v>
+      </c>
+      <c r="C232">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>51566422</v>
+      </c>
+      <c r="B233">
+        <v>51566427</v>
+      </c>
+      <c r="C233">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>51566427</v>
+      </c>
+      <c r="B234">
+        <v>51566435</v>
+      </c>
+      <c r="C234">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>51566435</v>
+      </c>
+      <c r="B235">
+        <v>51566442</v>
+      </c>
+      <c r="C235">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>51566442</v>
+      </c>
+      <c r="B236">
+        <v>51566450</v>
+      </c>
+      <c r="C236">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>51566450</v>
+      </c>
+      <c r="B237">
+        <v>51566459</v>
+      </c>
+      <c r="C237">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>51566459</v>
+      </c>
+      <c r="B238">
+        <v>51566465</v>
+      </c>
+      <c r="C238">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>51566465</v>
+      </c>
+      <c r="B239">
+        <v>51566472</v>
+      </c>
+      <c r="C239">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>51566472</v>
+      </c>
+      <c r="B240">
+        <v>51566480</v>
+      </c>
+      <c r="C240">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>51566480</v>
+      </c>
+      <c r="B241">
+        <v>51566487</v>
+      </c>
+      <c r="C241">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>51566487</v>
+      </c>
+      <c r="B242">
+        <v>51566494</v>
+      </c>
+      <c r="C242">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>51566494</v>
+      </c>
+      <c r="B243">
+        <v>51566501</v>
+      </c>
+      <c r="C243">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>51566502</v>
+      </c>
+      <c r="B244">
+        <v>51566509</v>
+      </c>
+      <c r="C244">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>51566509</v>
+      </c>
+      <c r="B245">
+        <v>51566516</v>
+      </c>
+      <c r="C245">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>51566516</v>
+      </c>
+      <c r="B246">
+        <v>51566523</v>
+      </c>
+      <c r="C246">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>51566523</v>
+      </c>
+      <c r="B247">
+        <v>51566529</v>
+      </c>
+      <c r="C247">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>51566529</v>
+      </c>
+      <c r="B248">
+        <v>51566536</v>
+      </c>
+      <c r="C248">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
+        <v>51566536</v>
+      </c>
+      <c r="B249">
+        <v>51566544</v>
+      </c>
+      <c r="C249">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>51566544</v>
+      </c>
+      <c r="B250">
+        <v>51566551</v>
+      </c>
+      <c r="C250">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>51566551</v>
+      </c>
+      <c r="B251">
+        <v>51566558</v>
+      </c>
+      <c r="C251">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>51566558</v>
+      </c>
+      <c r="B252">
+        <v>51566565</v>
+      </c>
+      <c r="C252">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>51566565</v>
+      </c>
+      <c r="B253">
+        <v>51566573</v>
+      </c>
+      <c r="C253">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>51566573</v>
+      </c>
+      <c r="B254">
+        <v>51566580</v>
+      </c>
+      <c r="C254">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>51566580</v>
+      </c>
+      <c r="B255">
+        <v>51566588</v>
+      </c>
+      <c r="C255">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>51566588</v>
+      </c>
+      <c r="B256">
+        <v>51566595</v>
+      </c>
+      <c r="C256">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>51566595</v>
+      </c>
+      <c r="B257">
+        <v>51566602</v>
+      </c>
+      <c r="C257">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>51566602</v>
+      </c>
+      <c r="B258">
+        <v>51566609</v>
+      </c>
+      <c r="C258">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>51566609</v>
+      </c>
+      <c r="B259">
+        <v>51566616</v>
+      </c>
+      <c r="C259">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>51566616</v>
+      </c>
+      <c r="B260">
+        <v>51566623</v>
+      </c>
+      <c r="C260">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>51566623</v>
+      </c>
+      <c r="B261">
+        <v>51566629</v>
+      </c>
+      <c r="C261">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>51566629</v>
+      </c>
+      <c r="B262">
+        <v>51566636</v>
+      </c>
+      <c r="C262">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
+        <v>51566636</v>
+      </c>
+      <c r="B263">
+        <v>51566643</v>
+      </c>
+      <c r="C263">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>51566643</v>
+      </c>
+      <c r="B264">
+        <v>51566650</v>
+      </c>
+      <c r="C264">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>51566650</v>
+      </c>
+      <c r="B265">
+        <v>51566657</v>
+      </c>
+      <c r="C265">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>51566657</v>
+      </c>
+      <c r="B266">
+        <v>51566664</v>
+      </c>
+      <c r="C266">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>51566664</v>
+      </c>
+      <c r="B267">
+        <v>51566672</v>
+      </c>
+      <c r="C267">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>51566672</v>
+      </c>
+      <c r="B268">
+        <v>51566679</v>
+      </c>
+      <c r="C268">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269">
+        <v>51566679</v>
+      </c>
+      <c r="B269">
+        <v>51566686</v>
+      </c>
+      <c r="C269">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270">
+        <v>51566686</v>
+      </c>
+      <c r="B270">
+        <v>51566693</v>
+      </c>
+      <c r="C270">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271">
+        <v>51566693</v>
+      </c>
+      <c r="B271">
+        <v>51566701</v>
+      </c>
+      <c r="C271">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272">
+        <v>51566701</v>
+      </c>
+      <c r="B272">
+        <v>51566709</v>
+      </c>
+      <c r="C272">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273">
+        <v>51566709</v>
+      </c>
+      <c r="B273">
+        <v>51566715</v>
+      </c>
+      <c r="C273">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>51566716</v>
+      </c>
+      <c r="B274">
+        <v>51566723</v>
+      </c>
+      <c r="C274">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>51566723</v>
+      </c>
+      <c r="B275">
+        <v>51566729</v>
+      </c>
+      <c r="C275">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>51566729</v>
+      </c>
+      <c r="B276">
+        <v>51566735</v>
+      </c>
+      <c r="C276">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>51566735</v>
+      </c>
+      <c r="B277">
+        <v>51566742</v>
+      </c>
+      <c r="C277">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
+        <v>51566742</v>
+      </c>
+      <c r="B278">
+        <v>51566750</v>
+      </c>
+      <c r="C278">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279">
+        <v>51566750</v>
+      </c>
+      <c r="B279">
+        <v>51566758</v>
+      </c>
+      <c r="C279">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280">
+        <v>51566758</v>
+      </c>
+      <c r="B280">
+        <v>51566766</v>
+      </c>
+      <c r="C280">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281">
+        <v>51566766</v>
+      </c>
+      <c r="B281">
+        <v>51566773</v>
+      </c>
+      <c r="C281">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282">
+        <v>51566773</v>
+      </c>
+      <c r="B282">
+        <v>51566780</v>
+      </c>
+      <c r="C282">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283">
+        <v>51566780</v>
+      </c>
+      <c r="B283">
+        <v>51566788</v>
+      </c>
+      <c r="C283">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284">
+        <v>51566788</v>
+      </c>
+      <c r="B284">
+        <v>51566795</v>
+      </c>
+      <c r="C284">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285">
+        <v>51566796</v>
+      </c>
+      <c r="B285">
+        <v>51566802</v>
+      </c>
+      <c r="C285">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286">
+        <v>51566802</v>
+      </c>
+      <c r="B286">
+        <v>51566809</v>
+      </c>
+      <c r="C286">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>51566809</v>
+      </c>
+      <c r="B287">
+        <v>51566816</v>
+      </c>
+      <c r="C287">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288">
+        <v>51566816</v>
+      </c>
+      <c r="B288">
+        <v>51566823</v>
+      </c>
+      <c r="C288">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>51566823</v>
+      </c>
+      <c r="B289">
+        <v>51566830</v>
+      </c>
+      <c r="C289">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
+        <v>51566830</v>
+      </c>
+      <c r="B290">
+        <v>51566836</v>
+      </c>
+      <c r="C290">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>51566836</v>
+      </c>
+      <c r="B291">
+        <v>51566844</v>
+      </c>
+      <c r="C291">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>51566844</v>
+      </c>
+      <c r="B292">
+        <v>51566850</v>
+      </c>
+      <c r="C292">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293">
+        <v>51566851</v>
+      </c>
+      <c r="B293">
+        <v>51566858</v>
+      </c>
+      <c r="C293">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294">
+        <v>51566858</v>
+      </c>
+      <c r="B294">
+        <v>51566865</v>
+      </c>
+      <c r="C294">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295">
+        <v>51566865</v>
+      </c>
+      <c r="B295">
+        <v>51566872</v>
+      </c>
+      <c r="C295">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296">
+        <v>51566872</v>
+      </c>
+      <c r="B296">
+        <v>51566880</v>
+      </c>
+      <c r="C296">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297">
+        <v>51566880</v>
+      </c>
+      <c r="B297">
+        <v>51566887</v>
+      </c>
+      <c r="C297">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298">
+        <v>51566887</v>
+      </c>
+      <c r="B298">
+        <v>51566894</v>
+      </c>
+      <c r="C298">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299">
+        <v>51566894</v>
+      </c>
+      <c r="B299">
+        <v>51566902</v>
+      </c>
+      <c r="C299">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300">
+        <v>51566902</v>
+      </c>
+      <c r="B300">
+        <v>51566909</v>
+      </c>
+      <c r="C300">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301">
+        <v>51566909</v>
+      </c>
+      <c r="B301">
+        <v>51566916</v>
+      </c>
+      <c r="C301">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302">
+        <v>51566916</v>
+      </c>
+      <c r="B302">
+        <v>51566923</v>
+      </c>
+      <c r="C302">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303">
+        <v>51566923</v>
+      </c>
+      <c r="B303">
+        <v>51566930</v>
+      </c>
+      <c r="C303">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304">
+        <v>51566930</v>
+      </c>
+      <c r="B304">
+        <v>51566936</v>
+      </c>
+      <c r="C304">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305">
+        <v>51566936</v>
+      </c>
+      <c r="B305">
+        <v>51566943</v>
+      </c>
+      <c r="C305">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306">
+        <v>51566943</v>
+      </c>
+      <c r="B306">
+        <v>51566951</v>
+      </c>
+      <c r="C306">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307">
+        <v>51566951</v>
+      </c>
+      <c r="B307">
+        <v>51566958</v>
+      </c>
+      <c r="C307">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308">
+        <v>51566958</v>
+      </c>
+      <c r="B308">
+        <v>51566965</v>
+      </c>
+      <c r="C308">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309">
+        <v>51566965</v>
+      </c>
+      <c r="B309">
+        <v>51566973</v>
+      </c>
+      <c r="C309">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310">
+        <v>51566973</v>
+      </c>
+      <c r="B310">
+        <v>51566980</v>
+      </c>
+      <c r="C310">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311">
+        <v>51566980</v>
+      </c>
+      <c r="B311">
+        <v>51566988</v>
+      </c>
+      <c r="C311">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312">
+        <v>51566988</v>
+      </c>
+      <c r="B312">
+        <v>51566995</v>
+      </c>
+      <c r="C312">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313">
+        <v>51566995</v>
+      </c>
+      <c r="B313">
+        <v>51567003</v>
+      </c>
+      <c r="C313">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314">
+        <v>51567003</v>
+      </c>
+      <c r="B314">
+        <v>51567010</v>
+      </c>
+      <c r="C314">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315">
+        <v>51567010</v>
+      </c>
+      <c r="B315">
+        <v>51567017</v>
+      </c>
+      <c r="C315">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316">
+        <v>51567017</v>
+      </c>
+      <c r="B316">
+        <v>51567024</v>
+      </c>
+      <c r="C316">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317">
+        <v>51567024</v>
+      </c>
+      <c r="B317">
+        <v>51567032</v>
+      </c>
+      <c r="C317">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318">
+        <v>51567032</v>
+      </c>
+      <c r="B318">
+        <v>51567038</v>
+      </c>
+      <c r="C318">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319">
+        <v>51567038</v>
+      </c>
+      <c r="B319">
+        <v>51567045</v>
+      </c>
+      <c r="C319">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320">
+        <v>51567045</v>
+      </c>
+      <c r="B320">
+        <v>51567052</v>
+      </c>
+      <c r="C320">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321">
+        <v>51567052</v>
+      </c>
+      <c r="B321">
+        <v>51567059</v>
+      </c>
+      <c r="C321">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322">
+        <v>51567059</v>
+      </c>
+      <c r="B322">
+        <v>51567066</v>
+      </c>
+      <c r="C322">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323">
+        <v>51567066</v>
+      </c>
+      <c r="B323">
+        <v>51567073</v>
+      </c>
+      <c r="C323">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324">
+        <v>51567074</v>
+      </c>
+      <c r="B324">
+        <v>51567081</v>
+      </c>
+      <c r="C324">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325">
+        <v>51567081</v>
+      </c>
+      <c r="B325">
+        <v>51567088</v>
+      </c>
+      <c r="C325">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326">
+        <v>51567088</v>
+      </c>
+      <c r="B326">
+        <v>51567095</v>
+      </c>
+      <c r="C326">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327">
+        <v>51567095</v>
+      </c>
+      <c r="B327">
+        <v>51567103</v>
+      </c>
+      <c r="C327">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328">
+        <v>51567103</v>
+      </c>
+      <c r="B328">
+        <v>51567110</v>
+      </c>
+      <c r="C328">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329">
+        <v>51567110</v>
+      </c>
+      <c r="B329">
+        <v>51567117</v>
+      </c>
+      <c r="C329">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330">
+        <v>51567117</v>
+      </c>
+      <c r="B330">
+        <v>51567124</v>
+      </c>
+      <c r="C330">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331">
+        <v>51567124</v>
+      </c>
+      <c r="B331">
+        <v>51567132</v>
+      </c>
+      <c r="C331">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332">
+        <v>51567132</v>
+      </c>
+      <c r="B332">
+        <v>51567138</v>
+      </c>
+      <c r="C332">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333">
+        <v>51567138</v>
+      </c>
+      <c r="B333">
+        <v>51567144</v>
+      </c>
+      <c r="C333">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334">
+        <v>51567144</v>
+      </c>
+      <c r="B334">
+        <v>51567151</v>
+      </c>
+      <c r="C334">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335">
+        <v>51567151</v>
+      </c>
+      <c r="B335">
+        <v>51567159</v>
+      </c>
+      <c r="C335">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336">
+        <v>51567159</v>
+      </c>
+      <c r="B336">
+        <v>51567166</v>
+      </c>
+      <c r="C336">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337">
+        <v>51567166</v>
+      </c>
+      <c r="B337">
+        <v>51567174</v>
+      </c>
+      <c r="C337">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338">
+        <v>51567174</v>
+      </c>
+      <c r="B338">
+        <v>51567181</v>
+      </c>
+      <c r="C338">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339">
+        <v>51567181</v>
+      </c>
+      <c r="B339">
+        <v>51567188</v>
+      </c>
+      <c r="C339">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340">
+        <v>51567188</v>
+      </c>
+      <c r="B340">
+        <v>51567195</v>
+      </c>
+      <c r="C340">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341">
+        <v>51567195</v>
+      </c>
+      <c r="B341">
+        <v>51567201</v>
+      </c>
+      <c r="C341">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342">
+        <v>51567201</v>
+      </c>
+      <c r="B342">
+        <v>51567207</v>
+      </c>
+      <c r="C342">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343">
+        <v>51567207</v>
+      </c>
+      <c r="B343">
+        <v>51567212</v>
+      </c>
+      <c r="C343">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344">
+        <v>51567212</v>
+      </c>
+      <c r="B344">
+        <v>51567217</v>
+      </c>
+      <c r="C344">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345">
+        <v>51567217</v>
+      </c>
+      <c r="B345">
+        <v>51567224</v>
+      </c>
+      <c r="C345">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346">
+        <v>51567224</v>
+      </c>
+      <c r="B346">
+        <v>51567232</v>
+      </c>
+      <c r="C346">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347">
+        <v>51567232</v>
+      </c>
+      <c r="B347">
+        <v>51567238</v>
+      </c>
+      <c r="C347">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348">
+        <v>51567238</v>
+      </c>
+      <c r="B348">
+        <v>51567243</v>
+      </c>
+      <c r="C348">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349">
+        <v>51567243</v>
+      </c>
+      <c r="B349">
+        <v>51567250</v>
+      </c>
+      <c r="C349">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350">
+        <v>51567250</v>
+      </c>
+      <c r="B350">
+        <v>51567258</v>
+      </c>
+      <c r="C350">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351">
+        <v>51567258</v>
+      </c>
+      <c r="B351">
+        <v>51567265</v>
+      </c>
+      <c r="C351">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352">
+        <v>51567265</v>
+      </c>
+      <c r="B352">
+        <v>51567272</v>
+      </c>
+      <c r="C352">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353">
+        <v>51567272</v>
+      </c>
+      <c r="B353">
+        <v>51567279</v>
+      </c>
+      <c r="C353">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354">
+        <v>51567279</v>
+      </c>
+      <c r="B354">
+        <v>51567286</v>
+      </c>
+      <c r="C354">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355">
+        <v>51567286</v>
+      </c>
+      <c r="B355">
+        <v>51567294</v>
+      </c>
+      <c r="C355">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356">
+        <v>51567294</v>
+      </c>
+      <c r="B356">
+        <v>51567301</v>
+      </c>
+      <c r="C356">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357">
+        <v>51567301</v>
+      </c>
+      <c r="B357">
+        <v>51567309</v>
+      </c>
+      <c r="C357">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358">
+        <v>51567309</v>
+      </c>
+      <c r="B358">
+        <v>51567316</v>
+      </c>
+      <c r="C358">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359">
+        <v>51567316</v>
+      </c>
+      <c r="B359">
+        <v>51567322</v>
+      </c>
+      <c r="C359">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360">
+        <v>51567322</v>
+      </c>
+      <c r="B360">
+        <v>51567330</v>
+      </c>
+      <c r="C360">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361">
+        <v>51567330</v>
+      </c>
+      <c r="B361">
+        <v>51567338</v>
+      </c>
+      <c r="C361">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362">
+        <v>51567338</v>
+      </c>
+      <c r="B362">
+        <v>51567344</v>
+      </c>
+      <c r="C362">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363">
+        <v>51567344</v>
+      </c>
+      <c r="B363">
+        <v>51567350</v>
+      </c>
+      <c r="C363">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364">
+        <v>51567350</v>
+      </c>
+      <c r="B364">
+        <v>51567358</v>
+      </c>
+      <c r="C364">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365">
+        <v>51567358</v>
+      </c>
+      <c r="B365">
+        <v>51567365</v>
+      </c>
+      <c r="C365">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366">
+        <v>51567365</v>
+      </c>
+      <c r="B366">
+        <v>51567372</v>
+      </c>
+      <c r="C366">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367">
+        <v>51567372</v>
+      </c>
+      <c r="B367">
+        <v>51567380</v>
+      </c>
+      <c r="C367">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368">
+        <v>51567380</v>
+      </c>
+      <c r="B368">
+        <v>51567388</v>
+      </c>
+      <c r="C368">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369">
+        <v>51567388</v>
+      </c>
+      <c r="B369">
+        <v>51567395</v>
+      </c>
+      <c r="C369">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370">
+        <v>51567395</v>
+      </c>
+      <c r="B370">
+        <v>51567402</v>
+      </c>
+      <c r="C370">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371">
+        <v>51567402</v>
+      </c>
+      <c r="B371">
+        <v>51567409</v>
+      </c>
+      <c r="C371">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372">
+        <v>51567409</v>
+      </c>
+      <c r="B372">
+        <v>51567416</v>
+      </c>
+      <c r="C372">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373">
+        <v>51567416</v>
+      </c>
+      <c r="B373">
+        <v>51567423</v>
+      </c>
+      <c r="C373">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374">
+        <v>51567423</v>
+      </c>
+      <c r="B374">
+        <v>51567430</v>
+      </c>
+      <c r="C374">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375">
+        <v>51567430</v>
+      </c>
+      <c r="B375">
+        <v>51567437</v>
+      </c>
+      <c r="C375">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376">
+        <v>51567437</v>
+      </c>
+      <c r="B376">
+        <v>51567444</v>
+      </c>
+      <c r="C376">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377">
+        <v>51567444</v>
+      </c>
+      <c r="B377">
+        <v>51567451</v>
+      </c>
+      <c r="C377">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378">
+        <v>51567451</v>
+      </c>
+      <c r="B378">
+        <v>51567457</v>
+      </c>
+      <c r="C378">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379">
+        <v>51567457</v>
+      </c>
+      <c r="B379">
+        <v>51567465</v>
+      </c>
+      <c r="C379">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380">
+        <v>51567465</v>
+      </c>
+      <c r="B380">
+        <v>51567473</v>
+      </c>
+      <c r="C380">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381">
+        <v>51567473</v>
+      </c>
+      <c r="B381">
+        <v>51567480</v>
+      </c>
+      <c r="C381">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382">
+        <v>51567480</v>
+      </c>
+      <c r="B382">
+        <v>51567487</v>
+      </c>
+      <c r="C382">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383">
+        <v>51567487</v>
+      </c>
+      <c r="B383">
+        <v>51567494</v>
+      </c>
+      <c r="C383">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384">
+        <v>51567494</v>
+      </c>
+      <c r="B384">
+        <v>51567502</v>
+      </c>
+      <c r="C384">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385">
+        <v>51567502</v>
+      </c>
+      <c r="B385">
+        <v>51567509</v>
+      </c>
+      <c r="C385">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386">
+        <v>51567509</v>
+      </c>
+      <c r="B386">
+        <v>51567516</v>
+      </c>
+      <c r="C386">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387">
+        <v>51567516</v>
+      </c>
+      <c r="B387">
+        <v>51567522</v>
+      </c>
+      <c r="C387">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388">
+        <v>51567522</v>
+      </c>
+      <c r="B388">
+        <v>51567530</v>
+      </c>
+      <c r="C388">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389">
+        <v>51567530</v>
+      </c>
+      <c r="B389">
+        <v>51567537</v>
+      </c>
+      <c r="C389">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390">
+        <v>51567537</v>
+      </c>
+      <c r="B390">
+        <v>51567544</v>
+      </c>
+      <c r="C390">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391">
+        <v>51567544</v>
+      </c>
+      <c r="B391">
+        <v>51567549</v>
+      </c>
+      <c r="C391">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392">
+        <v>51567549</v>
+      </c>
+      <c r="B392">
+        <v>51567556</v>
+      </c>
+      <c r="C392">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393">
+        <v>51567556</v>
+      </c>
+      <c r="B393">
+        <v>51567563</v>
+      </c>
+      <c r="C393">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394">
+        <v>51567563</v>
+      </c>
+      <c r="B394">
+        <v>51567570</v>
+      </c>
+      <c r="C394">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395">
+        <v>51567570</v>
+      </c>
+      <c r="B395">
+        <v>51567577</v>
+      </c>
+      <c r="C395">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396">
+        <v>51567577</v>
+      </c>
+      <c r="B396">
+        <v>51567585</v>
+      </c>
+      <c r="C396">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397">
+        <v>51567585</v>
+      </c>
+      <c r="B397">
+        <v>51567592</v>
+      </c>
+      <c r="C397">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398">
+        <v>51567592</v>
+      </c>
+      <c r="B398">
+        <v>51567600</v>
+      </c>
+      <c r="C398">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399">
+        <v>51567600</v>
+      </c>
+      <c r="B399">
+        <v>51567607</v>
+      </c>
+      <c r="C399">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400">
+        <v>51567607</v>
+      </c>
+      <c r="B400">
+        <v>51567614</v>
+      </c>
+      <c r="C400">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401">
+        <v>51567614</v>
+      </c>
+      <c r="B401">
+        <v>51567620</v>
+      </c>
+      <c r="C401">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402">
+        <v>51567620</v>
+      </c>
+      <c r="B402">
+        <v>51567627</v>
+      </c>
+      <c r="C402">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403">
+        <v>51567627</v>
+      </c>
+      <c r="B403">
+        <v>51567634</v>
+      </c>
+      <c r="C403">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404">
+        <v>51567634</v>
+      </c>
+      <c r="B404">
+        <v>51567641</v>
+      </c>
+      <c r="C404">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405">
+        <v>51567641</v>
+      </c>
+      <c r="B405">
+        <v>51567648</v>
+      </c>
+      <c r="C405">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406">
+        <v>51567648</v>
+      </c>
+      <c r="B406">
+        <v>51567653</v>
+      </c>
+      <c r="C406">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407">
+        <v>51567653</v>
+      </c>
+      <c r="B407">
+        <v>51567661</v>
+      </c>
+      <c r="C407">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408">
+        <v>51567661</v>
+      </c>
+      <c r="B408">
+        <v>51567669</v>
+      </c>
+      <c r="C408">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409">
+        <v>51567669</v>
+      </c>
+      <c r="B409">
+        <v>51567676</v>
+      </c>
+      <c r="C409">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410">
+        <v>51567676</v>
+      </c>
+      <c r="B410">
+        <v>51567684</v>
+      </c>
+      <c r="C410">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411">
+        <v>51567684</v>
+      </c>
+      <c r="B411">
+        <v>51567691</v>
+      </c>
+      <c r="C411">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412">
+        <v>51567691</v>
+      </c>
+      <c r="B412">
+        <v>51567698</v>
+      </c>
+      <c r="C412">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413">
+        <v>51567698</v>
+      </c>
+      <c r="B413">
+        <v>51567706</v>
+      </c>
+      <c r="C413">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414">
+        <v>51567706</v>
+      </c>
+      <c r="B414">
+        <v>51567713</v>
+      </c>
+      <c r="C414">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415">
+        <v>51567713</v>
+      </c>
+      <c r="B415">
+        <v>51567720</v>
+      </c>
+      <c r="C415">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416">
+        <v>51567720</v>
+      </c>
+      <c r="B416">
+        <v>51567727</v>
+      </c>
+      <c r="C416">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417">
+        <v>51567727</v>
+      </c>
+      <c r="B417">
+        <v>51567734</v>
+      </c>
+      <c r="C417">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418">
+        <v>51567734</v>
+      </c>
+      <c r="B418">
+        <v>51567742</v>
+      </c>
+      <c r="C418">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419">
+        <v>51567742</v>
+      </c>
+      <c r="B419">
+        <v>51567749</v>
+      </c>
+      <c r="C419">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420">
+        <v>51567749</v>
+      </c>
+      <c r="B420">
+        <v>51567755</v>
+      </c>
+      <c r="C420">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421">
+        <v>51567755</v>
+      </c>
+      <c r="B421">
+        <v>51567762</v>
+      </c>
+      <c r="C421">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422">
+        <v>51567762</v>
+      </c>
+      <c r="B422">
+        <v>51567770</v>
+      </c>
+      <c r="C422">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423">
+        <v>51567770</v>
+      </c>
+      <c r="B423">
+        <v>51567777</v>
+      </c>
+      <c r="C423">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424">
+        <v>51567777</v>
+      </c>
+      <c r="B424">
+        <v>51567784</v>
+      </c>
+      <c r="C424">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425">
+        <v>51567784</v>
+      </c>
+      <c r="B425">
+        <v>51567791</v>
+      </c>
+      <c r="C425">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426">
+        <v>51567791</v>
+      </c>
+      <c r="B426">
+        <v>51567799</v>
+      </c>
+      <c r="C426">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427">
+        <v>51567799</v>
+      </c>
+      <c r="B427">
+        <v>51567806</v>
+      </c>
+      <c r="C427">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428">
+        <v>51567806</v>
+      </c>
+      <c r="B428">
+        <v>51567813</v>
+      </c>
+      <c r="C428">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429">
+        <v>51567813</v>
+      </c>
+      <c r="B429">
+        <v>51567821</v>
+      </c>
+      <c r="C429">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430">
+        <v>51567821</v>
+      </c>
+      <c r="B430">
+        <v>51567828</v>
+      </c>
+      <c r="C430">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431">
+        <v>51567828</v>
+      </c>
+      <c r="B431">
+        <v>51567835</v>
+      </c>
+      <c r="C431">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432">
+        <v>51567835</v>
+      </c>
+      <c r="B432">
+        <v>51567842</v>
+      </c>
+      <c r="C432">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433">
+        <v>51567842</v>
+      </c>
+      <c r="B433">
+        <v>51567849</v>
+      </c>
+      <c r="C433">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434">
+        <v>51567849</v>
+      </c>
+      <c r="B434">
+        <v>51567855</v>
+      </c>
+      <c r="C434">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435">
+        <v>51567855</v>
+      </c>
+      <c r="B435">
+        <v>51567863</v>
+      </c>
+      <c r="C435">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436">
+        <v>51567863</v>
+      </c>
+      <c r="B436">
+        <v>51567870</v>
+      </c>
+      <c r="C436">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437">
+        <v>51567870</v>
+      </c>
+      <c r="B437">
+        <v>51567877</v>
+      </c>
+      <c r="C437">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438">
+        <v>51567877</v>
+      </c>
+      <c r="B438">
+        <v>51567885</v>
+      </c>
+      <c r="C438">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439">
+        <v>51567885</v>
+      </c>
+      <c r="B439">
+        <v>51567892</v>
+      </c>
+      <c r="C439">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440">
+        <v>51567892</v>
+      </c>
+      <c r="B440">
+        <v>51567899</v>
+      </c>
+      <c r="C440">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441">
+        <v>51567900</v>
+      </c>
+      <c r="B441">
+        <v>51567907</v>
+      </c>
+      <c r="C441">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442">
+        <v>51567907</v>
+      </c>
+      <c r="B442">
+        <v>51567914</v>
+      </c>
+      <c r="C442">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443">
+        <v>51567914</v>
+      </c>
+      <c r="B443">
+        <v>51567922</v>
+      </c>
+      <c r="C443">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444">
+        <v>51567922</v>
+      </c>
+      <c r="B444">
+        <v>51567929</v>
+      </c>
+      <c r="C444">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445">
+        <v>51567929</v>
+      </c>
+      <c r="B445">
+        <v>51567937</v>
+      </c>
+      <c r="C445">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446">
+        <v>51567937</v>
+      </c>
+      <c r="B446">
+        <v>51567943</v>
+      </c>
+      <c r="C446">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447">
+        <v>51567943</v>
+      </c>
+      <c r="B447">
+        <v>51567951</v>
+      </c>
+      <c r="C447">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448">
+        <v>51567951</v>
+      </c>
+      <c r="B448">
+        <v>51567958</v>
+      </c>
+      <c r="C448">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449">
+        <v>51567958</v>
+      </c>
+      <c r="B449">
+        <v>51567965</v>
+      </c>
+      <c r="C449">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450">
+        <v>51567965</v>
+      </c>
+      <c r="B450">
+        <v>51567972</v>
+      </c>
+      <c r="C450">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451">
+        <v>51567972</v>
+      </c>
+      <c r="B451">
+        <v>51567980</v>
+      </c>
+      <c r="C451">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452">
+        <v>51567980</v>
+      </c>
+      <c r="B452">
+        <v>51567987</v>
+      </c>
+      <c r="C452">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453">
+        <v>51567987</v>
+      </c>
+      <c r="B453">
+        <v>51567994</v>
+      </c>
+      <c r="C453">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454">
+        <v>51567994</v>
+      </c>
+      <c r="B454">
+        <v>51568002</v>
+      </c>
+      <c r="C454">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455">
+        <v>51568002</v>
+      </c>
+      <c r="B455">
+        <v>51568009</v>
+      </c>
+      <c r="C455">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456">
+        <v>51568009</v>
+      </c>
+      <c r="B456">
+        <v>51568017</v>
+      </c>
+      <c r="C456">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457">
+        <v>51568017</v>
+      </c>
+      <c r="B457">
+        <v>51568024</v>
+      </c>
+      <c r="C457">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458">
+        <v>51568024</v>
+      </c>
+      <c r="B458">
+        <v>51568031</v>
+      </c>
+      <c r="C458">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459">
+        <v>51568031</v>
+      </c>
+      <c r="B459">
+        <v>51568038</v>
+      </c>
+      <c r="C459">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460">
+        <v>51568038</v>
+      </c>
+      <c r="B460">
+        <v>51568046</v>
+      </c>
+      <c r="C460">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461">
+        <v>51568046</v>
+      </c>
+      <c r="B461">
+        <v>51568053</v>
+      </c>
+      <c r="C461">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462">
+        <v>51568053</v>
+      </c>
+      <c r="B462">
+        <v>51568059</v>
+      </c>
+      <c r="C462">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463">
+        <v>51568059</v>
+      </c>
+      <c r="B463">
+        <v>51568065</v>
+      </c>
+      <c r="C463">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464">
+        <v>51568065</v>
+      </c>
+      <c r="B464">
+        <v>51568071</v>
+      </c>
+      <c r="C464">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465">
+        <v>51568071</v>
+      </c>
+      <c r="B465">
+        <v>51568079</v>
+      </c>
+      <c r="C465">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466">
+        <v>51568079</v>
+      </c>
+      <c r="B466">
+        <v>51568086</v>
+      </c>
+      <c r="C466">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467">
+        <v>51568086</v>
+      </c>
+      <c r="B467">
+        <v>51568093</v>
+      </c>
+      <c r="C467">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468">
+        <v>51568093</v>
+      </c>
+      <c r="B468">
+        <v>51568101</v>
+      </c>
+      <c r="C468">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469">
+        <v>51568101</v>
+      </c>
+      <c r="B469">
+        <v>51568108</v>
+      </c>
+      <c r="C469">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470">
+        <v>51568108</v>
+      </c>
+      <c r="B470">
+        <v>51568115</v>
+      </c>
+      <c r="C470">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471">
+        <v>51568115</v>
+      </c>
+      <c r="B471">
+        <v>51568123</v>
+      </c>
+      <c r="C471">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472">
+        <v>51568123</v>
+      </c>
+      <c r="B472">
+        <v>51568129</v>
+      </c>
+      <c r="C472">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473">
+        <v>51568129</v>
+      </c>
+      <c r="B473">
+        <v>51568137</v>
+      </c>
+      <c r="C473">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474">
+        <v>51568137</v>
+      </c>
+      <c r="B474">
+        <v>51568144</v>
+      </c>
+      <c r="C474">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475">
+        <v>51568144</v>
+      </c>
+      <c r="B475">
+        <v>51568151</v>
+      </c>
+      <c r="C475">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476">
+        <v>51568151</v>
+      </c>
+      <c r="B476">
+        <v>51568159</v>
+      </c>
+      <c r="C476">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477">
+        <v>51568159</v>
+      </c>
+      <c r="B477">
+        <v>51568164</v>
+      </c>
+      <c r="C477">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478">
+        <v>51568164</v>
+      </c>
+      <c r="B478">
+        <v>51568172</v>
+      </c>
+      <c r="C478">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479">
+        <v>51568172</v>
+      </c>
+      <c r="B479">
+        <v>51568179</v>
+      </c>
+      <c r="C479">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480">
+        <v>51568179</v>
+      </c>
+      <c r="B480">
+        <v>51568186</v>
+      </c>
+      <c r="C480">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481">
+        <v>51568186</v>
+      </c>
+      <c r="B481">
+        <v>51568193</v>
+      </c>
+      <c r="C481">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482">
+        <v>51568194</v>
+      </c>
+      <c r="B482">
+        <v>51568200</v>
+      </c>
+      <c r="C482">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483">
+        <v>51568200</v>
+      </c>
+      <c r="B483">
+        <v>51568208</v>
+      </c>
+      <c r="C483">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484">
+        <v>51568208</v>
+      </c>
+      <c r="B484">
+        <v>51568215</v>
+      </c>
+      <c r="C484">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485">
+        <v>51568215</v>
+      </c>
+      <c r="B485">
+        <v>51568222</v>
+      </c>
+      <c r="C485">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486">
+        <v>51568222</v>
+      </c>
+      <c r="B486">
+        <v>51568230</v>
+      </c>
+      <c r="C486">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487">
+        <v>51568230</v>
+      </c>
+      <c r="B487">
+        <v>51568237</v>
+      </c>
+      <c r="C487">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488">
+        <v>51568237</v>
+      </c>
+      <c r="B488">
+        <v>51568244</v>
+      </c>
+      <c r="C488">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489">
+        <v>51568244</v>
+      </c>
+      <c r="B489">
+        <v>51568251</v>
+      </c>
+      <c r="C489">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490">
+        <v>51568251</v>
+      </c>
+      <c r="B490">
+        <v>51568258</v>
+      </c>
+      <c r="C490">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491">
+        <v>51568258</v>
+      </c>
+      <c r="B491">
+        <v>51568265</v>
+      </c>
+      <c r="C491">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492">
+        <v>51568265</v>
+      </c>
+      <c r="B492">
+        <v>51568271</v>
+      </c>
+      <c r="C492">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493">
+        <v>51568271</v>
+      </c>
+      <c r="B493">
+        <v>51568278</v>
+      </c>
+      <c r="C493">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494">
+        <v>51568278</v>
+      </c>
+      <c r="B494">
+        <v>51568285</v>
+      </c>
+      <c r="C494">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495">
+        <v>51568285</v>
+      </c>
+      <c r="B495">
+        <v>51568293</v>
+      </c>
+      <c r="C495">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496">
+        <v>51568293</v>
+      </c>
+      <c r="B496">
+        <v>51568300</v>
+      </c>
+      <c r="C496">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497">
+        <v>51568300</v>
+      </c>
+      <c r="B497">
+        <v>51568307</v>
+      </c>
+      <c r="C497">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498">
+        <v>51568307</v>
+      </c>
+      <c r="B498">
+        <v>51568314</v>
+      </c>
+      <c r="C498">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499">
+        <v>51568314</v>
+      </c>
+      <c r="B499">
+        <v>51568321</v>
+      </c>
+      <c r="C499">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500">
+        <v>51568321</v>
+      </c>
+      <c r="B500">
+        <v>51568329</v>
+      </c>
+      <c r="C500">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501">
+        <v>51568329</v>
+      </c>
+      <c r="B501">
+        <v>51568336</v>
+      </c>
+      <c r="C501">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502">
+        <v>51568336</v>
+      </c>
+      <c r="B502">
+        <v>51568343</v>
+      </c>
+      <c r="C502">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503">
+        <v>51568343</v>
+      </c>
+      <c r="B503">
+        <v>51568350</v>
+      </c>
+      <c r="C503">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504">
+        <v>51568350</v>
+      </c>
+      <c r="B504">
+        <v>51568357</v>
+      </c>
+      <c r="C504">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505">
+        <v>51568357</v>
+      </c>
+      <c r="B505">
+        <v>51568363</v>
+      </c>
+      <c r="C505">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506">
+        <v>51568363</v>
+      </c>
+      <c r="B506">
+        <v>51568369</v>
+      </c>
+      <c r="C506">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507">
+        <v>51568369</v>
+      </c>
+      <c r="B507">
+        <v>51568375</v>
+      </c>
+      <c r="C507">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508">
+        <v>51568375</v>
+      </c>
+      <c r="B508">
+        <v>51568383</v>
+      </c>
+      <c r="C508">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509">
+        <v>51568383</v>
+      </c>
+      <c r="B509">
+        <v>51568390</v>
+      </c>
+      <c r="C509">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510">
+        <v>51568390</v>
+      </c>
+      <c r="B510">
+        <v>51568398</v>
+      </c>
+      <c r="C510">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511">
+        <v>51568398</v>
+      </c>
+      <c r="B511">
+        <v>51568405</v>
+      </c>
+      <c r="C511">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512">
+        <v>51568405</v>
+      </c>
+      <c r="B512">
+        <v>51568412</v>
+      </c>
+      <c r="C512">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513">
+        <v>51568412</v>
+      </c>
+      <c r="B513">
+        <v>51568420</v>
+      </c>
+      <c r="C513">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514">
+        <v>51568420</v>
+      </c>
+      <c r="B514">
+        <v>51568427</v>
+      </c>
+      <c r="C514">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515">
+        <v>51568427</v>
+      </c>
+      <c r="B515">
+        <v>51568434</v>
+      </c>
+      <c r="C515">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516">
+        <v>51568434</v>
+      </c>
+      <c r="B516">
+        <v>51568442</v>
+      </c>
+      <c r="C516">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517">
+        <v>51568442</v>
+      </c>
+      <c r="B517">
+        <v>51568449</v>
+      </c>
+      <c r="C517">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518">
+        <v>51568449</v>
+      </c>
+      <c r="B518">
+        <v>51568456</v>
+      </c>
+      <c r="C518">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519">
+        <v>51568456</v>
+      </c>
+      <c r="B519">
+        <v>51568464</v>
+      </c>
+      <c r="C519">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520">
+        <v>51568464</v>
+      </c>
+      <c r="B520">
+        <v>51568470</v>
+      </c>
+      <c r="C520">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521">
+        <v>51568470</v>
+      </c>
+      <c r="B521">
+        <v>51568475</v>
+      </c>
+      <c r="C521">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522">
+        <v>51568475</v>
+      </c>
+      <c r="B522">
+        <v>51568483</v>
+      </c>
+      <c r="C522">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523">
+        <v>51568483</v>
+      </c>
+      <c r="B523">
+        <v>51568489</v>
+      </c>
+      <c r="C523">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524">
+        <v>51568489</v>
+      </c>
+      <c r="B524">
+        <v>51568496</v>
+      </c>
+      <c r="C524">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525">
+        <v>51568496</v>
+      </c>
+      <c r="B525">
+        <v>51568503</v>
+      </c>
+      <c r="C525">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526">
+        <v>51568503</v>
+      </c>
+      <c r="B526">
+        <v>51568510</v>
+      </c>
+      <c r="C526">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527">
+        <v>51568510</v>
+      </c>
+      <c r="B527">
+        <v>51568517</v>
+      </c>
+      <c r="C527">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528">
+        <v>51568517</v>
+      </c>
+      <c r="B528">
+        <v>51568524</v>
+      </c>
+      <c r="C528">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529">
+        <v>51568524</v>
+      </c>
+      <c r="B529">
+        <v>51568531</v>
+      </c>
+      <c r="C529">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530">
+        <v>51568531</v>
+      </c>
+      <c r="B530">
+        <v>51568538</v>
+      </c>
+      <c r="C530">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531">
+        <v>51568538</v>
+      </c>
+      <c r="B531">
+        <v>51568545</v>
+      </c>
+      <c r="C531">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532">
+        <v>51568545</v>
+      </c>
+      <c r="B532">
+        <v>51568552</v>
+      </c>
+      <c r="C532">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533">
+        <v>51568552</v>
+      </c>
+      <c r="B533">
+        <v>51568560</v>
+      </c>
+      <c r="C533">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534">
+        <v>51568560</v>
+      </c>
+      <c r="B534">
+        <v>51568567</v>
+      </c>
+      <c r="C534">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535">
+        <v>51568567</v>
+      </c>
+      <c r="B535">
+        <v>51568573</v>
+      </c>
+      <c r="C535">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536">
+        <v>51568573</v>
+      </c>
+      <c r="B536">
+        <v>51568579</v>
+      </c>
+      <c r="C536">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537">
+        <v>51568579</v>
+      </c>
+      <c r="B537">
+        <v>51568586</v>
+      </c>
+      <c r="C537">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538">
+        <v>51568586</v>
+      </c>
+      <c r="B538">
+        <v>51568593</v>
+      </c>
+      <c r="C538">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539">
+        <v>51568593</v>
+      </c>
+      <c r="B539">
+        <v>51568601</v>
+      </c>
+      <c r="C539">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540">
+        <v>51568601</v>
+      </c>
+      <c r="B540">
+        <v>51568609</v>
+      </c>
+      <c r="C540">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541">
+        <v>51568609</v>
+      </c>
+      <c r="B541">
+        <v>51568616</v>
+      </c>
+      <c r="C541">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542">
+        <v>51568616</v>
+      </c>
+      <c r="B542">
+        <v>51568623</v>
+      </c>
+      <c r="C542">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543">
+        <v>51568623</v>
+      </c>
+      <c r="B543">
+        <v>51568630</v>
+      </c>
+      <c r="C543">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544">
+        <v>51568630</v>
+      </c>
+      <c r="B544">
+        <v>51568638</v>
+      </c>
+      <c r="C544">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545">
+        <v>51568638</v>
+      </c>
+      <c r="B545">
+        <v>51568645</v>
+      </c>
+      <c r="C545">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546">
+        <v>51568645</v>
+      </c>
+      <c r="B546">
+        <v>51568653</v>
+      </c>
+      <c r="C546">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547">
+        <v>51568653</v>
+      </c>
+      <c r="B547">
+        <v>51568660</v>
+      </c>
+      <c r="C547">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548">
+        <v>51568660</v>
+      </c>
+      <c r="B548">
+        <v>51568668</v>
+      </c>
+      <c r="C548">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549">
+        <v>51568668</v>
+      </c>
+      <c r="B549">
+        <v>51568674</v>
+      </c>
+      <c r="C549">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550">
+        <v>51568674</v>
+      </c>
+      <c r="B550">
+        <v>51568680</v>
+      </c>
+      <c r="C550">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551">
+        <v>51568680</v>
+      </c>
+      <c r="B551">
+        <v>51568688</v>
+      </c>
+      <c r="C551">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552">
+        <v>51568688</v>
+      </c>
+      <c r="B552">
+        <v>51568695</v>
+      </c>
+      <c r="C552">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553">
+        <v>51568695</v>
+      </c>
+      <c r="B553">
+        <v>51568702</v>
+      </c>
+      <c r="C553">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554">
+        <v>51568702</v>
+      </c>
+      <c r="B554">
+        <v>51568709</v>
+      </c>
+      <c r="C554">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555">
+        <v>51568709</v>
+      </c>
+      <c r="B555">
+        <v>51568716</v>
+      </c>
+      <c r="C555">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556">
+        <v>51568716</v>
+      </c>
+      <c r="B556">
+        <v>51568723</v>
+      </c>
+      <c r="C556">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557">
+        <v>51568723</v>
+      </c>
+      <c r="B557">
+        <v>51568731</v>
+      </c>
+      <c r="C557">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558">
+        <v>51568731</v>
+      </c>
+      <c r="B558">
+        <v>51568738</v>
+      </c>
+      <c r="C558">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559">
+        <v>51568738</v>
+      </c>
+      <c r="B559">
+        <v>51568744</v>
+      </c>
+      <c r="C559">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560">
+        <v>51568744</v>
+      </c>
+      <c r="B560">
+        <v>51568752</v>
+      </c>
+      <c r="C560">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561">
+        <v>51568752</v>
+      </c>
+      <c r="B561">
+        <v>51568757</v>
+      </c>
+      <c r="C561">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562">
+        <v>51568757</v>
+      </c>
+      <c r="B562">
+        <v>51568764</v>
+      </c>
+      <c r="C562">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563">
+        <v>51568764</v>
+      </c>
+      <c r="B563">
+        <v>51568771</v>
+      </c>
+      <c r="C563">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564">
+        <v>51568772</v>
+      </c>
+      <c r="B564">
+        <v>51568778</v>
+      </c>
+      <c r="C564">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565">
+        <v>51568778</v>
+      </c>
+      <c r="B565">
+        <v>51568785</v>
+      </c>
+      <c r="C565">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566">
+        <v>51568785</v>
+      </c>
+      <c r="B566">
+        <v>51568793</v>
+      </c>
+      <c r="C566">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567">
+        <v>51568793</v>
+      </c>
+      <c r="B567">
+        <v>51568800</v>
+      </c>
+      <c r="C567">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568">
+        <v>51568800</v>
+      </c>
+      <c r="B568">
+        <v>51568807</v>
+      </c>
+      <c r="C568">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569">
+        <v>51568807</v>
+      </c>
+      <c r="B569">
+        <v>51568814</v>
+      </c>
+      <c r="C569">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570">
+        <v>51568814</v>
+      </c>
+      <c r="B570">
+        <v>51568822</v>
+      </c>
+      <c r="C570">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571">
+        <v>51568822</v>
+      </c>
+      <c r="B571">
+        <v>51568829</v>
+      </c>
+      <c r="C571">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572">
+        <v>51568829</v>
+      </c>
+      <c r="B572">
+        <v>51568836</v>
+      </c>
+      <c r="C572">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573">
+        <v>51568836</v>
+      </c>
+      <c r="B573">
+        <v>51568844</v>
+      </c>
+      <c r="C573">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574">
+        <v>51568844</v>
+      </c>
+      <c r="B574">
+        <v>51568851</v>
+      </c>
+      <c r="C574">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575">
+        <v>51568851</v>
+      </c>
+      <c r="B575">
+        <v>51568858</v>
+      </c>
+      <c r="C575">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576">
+        <v>51568858</v>
+      </c>
+      <c r="B576">
+        <v>51568865</v>
+      </c>
+      <c r="C576">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577">
+        <v>51568865</v>
+      </c>
+      <c r="B577">
+        <v>51568872</v>
+      </c>
+      <c r="C577">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578">
+        <v>51568872</v>
+      </c>
+      <c r="B578">
+        <v>51568879</v>
+      </c>
+      <c r="C578">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579">
+        <v>51568879</v>
+      </c>
+      <c r="B579">
+        <v>51568885</v>
+      </c>
+      <c r="C579">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580">
+        <v>51568885</v>
+      </c>
+      <c r="B580">
+        <v>51568892</v>
+      </c>
+      <c r="C580">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581">
+        <v>51568892</v>
+      </c>
+      <c r="B581">
+        <v>51568900</v>
+      </c>
+      <c r="C581">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582">
+        <v>51568900</v>
+      </c>
+      <c r="B582">
+        <v>51568907</v>
+      </c>
+      <c r="C582">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583">
+        <v>51568907</v>
+      </c>
+      <c r="B583">
+        <v>51568914</v>
+      </c>
+      <c r="C583">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584">
+        <v>51568914</v>
+      </c>
+      <c r="B584">
+        <v>51568921</v>
+      </c>
+      <c r="C584">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585">
+        <v>51568921</v>
+      </c>
+      <c r="B585">
+        <v>51568929</v>
+      </c>
+      <c r="C585">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586">
+        <v>51568929</v>
+      </c>
+      <c r="B586">
+        <v>51568936</v>
+      </c>
+      <c r="C586">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587">
+        <v>51568936</v>
+      </c>
+      <c r="B587">
+        <v>51568944</v>
+      </c>
+      <c r="C587">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588">
+        <v>51568944</v>
+      </c>
+      <c r="B588">
+        <v>51568951</v>
+      </c>
+      <c r="C588">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589">
+        <v>51568951</v>
+      </c>
+      <c r="B589">
+        <v>51568958</v>
+      </c>
+      <c r="C589">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590">
+        <v>51568958</v>
+      </c>
+      <c r="B590">
+        <v>51568965</v>
+      </c>
+      <c r="C590">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591">
+        <v>51568965</v>
+      </c>
+      <c r="B591">
+        <v>51568973</v>
+      </c>
+      <c r="C591">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592">
+        <v>51568973</v>
+      </c>
+      <c r="B592">
+        <v>51568979</v>
+      </c>
+      <c r="C592">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593">
+        <v>51568979</v>
+      </c>
+      <c r="B593">
+        <v>51568985</v>
+      </c>
+      <c r="C593">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594">
+        <v>51568985</v>
+      </c>
+      <c r="B594">
+        <v>51568992</v>
+      </c>
+      <c r="C594">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595">
+        <v>51568992</v>
+      </c>
+      <c r="B595">
+        <v>51569000</v>
+      </c>
+      <c r="C595">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596">
+        <v>51569000</v>
+      </c>
+      <c r="B596">
+        <v>51569006</v>
+      </c>
+      <c r="C596">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597">
+        <v>51569006</v>
+      </c>
+      <c r="B597">
+        <v>51569013</v>
+      </c>
+      <c r="C597">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598">
+        <v>51569013</v>
+      </c>
+      <c r="B598">
+        <v>51569021</v>
+      </c>
+      <c r="C598">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599">
+        <v>51569021</v>
+      </c>
+      <c r="B599">
+        <v>51569028</v>
+      </c>
+      <c r="C599">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600">
+        <v>51569028</v>
+      </c>
+      <c r="B600">
+        <v>51569035</v>
+      </c>
+      <c r="C600">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601">
+        <v>51569035</v>
+      </c>
+      <c r="B601">
+        <v>51569043</v>
+      </c>
+      <c r="C601">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602">
+        <v>51569043</v>
+      </c>
+      <c r="B602">
+        <v>51569050</v>
+      </c>
+      <c r="C602">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603">
+        <v>51569050</v>
+      </c>
+      <c r="B603">
+        <v>51569057</v>
+      </c>
+      <c r="C603">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604">
+        <v>51569058</v>
+      </c>
+      <c r="B604">
+        <v>51569065</v>
+      </c>
+      <c r="C604">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605">
+        <v>51569065</v>
+      </c>
+      <c r="B605">
+        <v>51569072</v>
+      </c>
+      <c r="C605">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606">
+        <v>51569072</v>
+      </c>
+      <c r="B606">
+        <v>51569080</v>
+      </c>
+      <c r="C606">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607">
+        <v>51569080</v>
+      </c>
+      <c r="B607">
+        <v>51569085</v>
+      </c>
+      <c r="C607">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608">
+        <v>51569085</v>
+      </c>
+      <c r="B608">
+        <v>51569091</v>
+      </c>
+      <c r="C608">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609">
+        <v>51569091</v>
+      </c>
+      <c r="B609">
+        <v>51569099</v>
+      </c>
+      <c r="C609">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610">
+        <v>51569099</v>
+      </c>
+      <c r="B610">
+        <v>51569106</v>
+      </c>
+      <c r="C610">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611">
+        <v>51569106</v>
+      </c>
+      <c r="B611">
+        <v>51569114</v>
+      </c>
+      <c r="C611">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612">
+        <v>51569114</v>
+      </c>
+      <c r="B612">
+        <v>51569121</v>
+      </c>
+      <c r="C612">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613">
+        <v>51569121</v>
+      </c>
+      <c r="B613">
+        <v>51569128</v>
+      </c>
+      <c r="C613">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614">
+        <v>51569128</v>
+      </c>
+      <c r="B614">
+        <v>51569135</v>
+      </c>
+      <c r="C614">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615">
+        <v>51569135</v>
+      </c>
+      <c r="B615">
+        <v>51569143</v>
+      </c>
+      <c r="C615">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616">
+        <v>51569143</v>
+      </c>
+      <c r="B616">
+        <v>51569150</v>
+      </c>
+      <c r="C616">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617">
+        <v>51569150</v>
+      </c>
+      <c r="B617">
+        <v>51569157</v>
+      </c>
+      <c r="C617">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618">
+        <v>51569157</v>
+      </c>
+      <c r="B618">
+        <v>51569164</v>
+      </c>
+      <c r="C618">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619">
+        <v>51569164</v>
+      </c>
+      <c r="B619">
+        <v>51569172</v>
+      </c>
+      <c r="C619">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620">
+        <v>51569172</v>
+      </c>
+      <c r="B620">
+        <v>51569179</v>
+      </c>
+      <c r="C620">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621">
+        <v>51569179</v>
+      </c>
+      <c r="B621">
+        <v>51569185</v>
+      </c>
+      <c r="C621">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622">
+        <v>51569185</v>
+      </c>
+      <c r="B622">
+        <v>51569192</v>
+      </c>
+      <c r="C622">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623">
+        <v>51569192</v>
+      </c>
+      <c r="B623">
+        <v>51569199</v>
+      </c>
+      <c r="C623">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624">
+        <v>51569199</v>
+      </c>
+      <c r="B624">
+        <v>51569207</v>
+      </c>
+      <c r="C624">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625">
+        <v>51569207</v>
+      </c>
+      <c r="B625">
+        <v>51569214</v>
+      </c>
+      <c r="C625">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626">
+        <v>51569214</v>
+      </c>
+      <c r="B626">
+        <v>51569221</v>
+      </c>
+      <c r="C626">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627">
+        <v>51569221</v>
+      </c>
+      <c r="B627">
+        <v>51569228</v>
+      </c>
+      <c r="C627">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628">
+        <v>51569228</v>
+      </c>
+      <c r="B628">
+        <v>51569236</v>
+      </c>
+      <c r="C628">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629">
+        <v>51569236</v>
+      </c>
+      <c r="B629">
+        <v>51569243</v>
+      </c>
+      <c r="C629">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630">
+        <v>51569243</v>
+      </c>
+      <c r="B630">
+        <v>51569251</v>
+      </c>
+      <c r="C630">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631">
+        <v>51569251</v>
+      </c>
+      <c r="B631">
+        <v>51569258</v>
+      </c>
+      <c r="C631">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632">
+        <v>51569258</v>
+      </c>
+      <c r="B632">
+        <v>51569265</v>
+      </c>
+      <c r="C632">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633">
+        <v>51569265</v>
+      </c>
+      <c r="B633">
+        <v>51569272</v>
+      </c>
+      <c r="C633">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634">
+        <v>51569272</v>
+      </c>
+      <c r="B634">
+        <v>51569280</v>
+      </c>
+      <c r="C634">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635">
+        <v>51569280</v>
+      </c>
+      <c r="B635">
+        <v>51569287</v>
+      </c>
+      <c r="C635">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636">
+        <v>51569287</v>
+      </c>
+      <c r="B636">
+        <v>51569292</v>
+      </c>
+      <c r="C636">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637">
+        <v>51569292</v>
+      </c>
+      <c r="B637">
+        <v>51569299</v>
+      </c>
+      <c r="C637">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638">
+        <v>51569299</v>
+      </c>
+      <c r="B638">
+        <v>51569306</v>
+      </c>
+      <c r="C638">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639">
+        <v>51569306</v>
+      </c>
+      <c r="B639">
+        <v>51569314</v>
+      </c>
+      <c r="C639">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640">
+        <v>51569314</v>
+      </c>
+      <c r="B640">
+        <v>51569320</v>
+      </c>
+      <c r="C640">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641">
+        <v>51569320</v>
+      </c>
+      <c r="B641">
+        <v>51569328</v>
+      </c>
+      <c r="C641">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642">
+        <v>51569328</v>
+      </c>
+      <c r="B642">
+        <v>51569335</v>
+      </c>
+      <c r="C642">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643">
+        <v>51569335</v>
+      </c>
+      <c r="B643">
+        <v>51569342</v>
+      </c>
+      <c r="C643">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644">
+        <v>51569342</v>
+      </c>
+      <c r="B644">
+        <v>51569350</v>
+      </c>
+      <c r="C644">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645">
+        <v>51569350</v>
+      </c>
+      <c r="B645">
+        <v>51569357</v>
+      </c>
+      <c r="C645">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646">
+        <v>51569357</v>
+      </c>
+      <c r="B646">
+        <v>51569364</v>
+      </c>
+      <c r="C646">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647">
+        <v>51569364</v>
+      </c>
+      <c r="B647">
+        <v>51569372</v>
+      </c>
+      <c r="C647">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648">
+        <v>51569372</v>
+      </c>
+      <c r="B648">
+        <v>51569380</v>
+      </c>
+      <c r="C648">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649">
+        <v>51569380</v>
+      </c>
+      <c r="B649">
+        <v>51569387</v>
+      </c>
+      <c r="C649">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650">
+        <v>51569387</v>
+      </c>
+      <c r="B650">
+        <v>51569392</v>
+      </c>
+      <c r="C650">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651">
+        <v>51569392</v>
+      </c>
+      <c r="B651">
+        <v>51569399</v>
+      </c>
+      <c r="C651">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652">
+        <v>51569399</v>
+      </c>
+      <c r="B652">
+        <v>51569407</v>
+      </c>
+      <c r="C652">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653">
+        <v>51569407</v>
+      </c>
+      <c r="B653">
+        <v>51569414</v>
+      </c>
+      <c r="C653">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="A654">
+        <v>51569414</v>
+      </c>
+      <c r="B654">
+        <v>51569421</v>
+      </c>
+      <c r="C654">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="A655">
+        <v>51569421</v>
+      </c>
+      <c r="B655">
+        <v>51569429</v>
+      </c>
+      <c r="C655">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="A656">
+        <v>51569429</v>
+      </c>
+      <c r="B656">
+        <v>51569436</v>
+      </c>
+      <c r="C656">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="A657">
+        <v>51569436</v>
+      </c>
+      <c r="B657">
+        <v>51569443</v>
+      </c>
+      <c r="C657">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658">
+        <v>51569443</v>
+      </c>
+      <c r="B658">
+        <v>51569450</v>
+      </c>
+      <c r="C658">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="A659">
+        <v>51569450</v>
+      </c>
+      <c r="B659">
+        <v>51569457</v>
+      </c>
+      <c r="C659">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660">
+        <v>51569458</v>
+      </c>
+      <c r="B660">
+        <v>51569464</v>
+      </c>
+      <c r="C660">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="A661">
+        <v>51569464</v>
+      </c>
+      <c r="B661">
+        <v>51569471</v>
+      </c>
+      <c r="C661">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662">
+        <v>51569471</v>
+      </c>
+      <c r="B662">
+        <v>51569479</v>
+      </c>
+      <c r="C662">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="A663">
+        <v>51569479</v>
+      </c>
+      <c r="B663">
+        <v>51569485</v>
+      </c>
+      <c r="C663">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664">
+        <v>51569485</v>
+      </c>
+      <c r="B664">
+        <v>51569492</v>
+      </c>
+      <c r="C664">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665">
+        <v>51569493</v>
+      </c>
+      <c r="B665">
+        <v>51569499</v>
+      </c>
+      <c r="C665">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666">
+        <v>51569499</v>
+      </c>
+      <c r="B666">
+        <v>51569505</v>
+      </c>
+      <c r="C666">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667">
+        <v>51569505</v>
+      </c>
+      <c r="B667">
+        <v>51569513</v>
+      </c>
+      <c r="C667">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668">
+        <v>51569513</v>
+      </c>
+      <c r="B668">
+        <v>51569520</v>
+      </c>
+      <c r="C668">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669">
+        <v>51569520</v>
+      </c>
+      <c r="B669">
+        <v>51569528</v>
+      </c>
+      <c r="C669">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="A670">
+        <v>51569528</v>
+      </c>
+      <c r="B670">
+        <v>51569535</v>
+      </c>
+      <c r="C670">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3">
+      <c r="A671">
+        <v>51569535</v>
+      </c>
+      <c r="B671">
+        <v>51569542</v>
+      </c>
+      <c r="C671">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3">
+      <c r="A672">
+        <v>51569542</v>
+      </c>
+      <c r="B672">
+        <v>51569550</v>
+      </c>
+      <c r="C672">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3">
+      <c r="A673">
+        <v>51569550</v>
+      </c>
+      <c r="B673">
+        <v>51569557</v>
+      </c>
+      <c r="C673">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3">
+      <c r="A674">
+        <v>51569557</v>
+      </c>
+      <c r="B674">
+        <v>51569566</v>
+      </c>
+      <c r="C674">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="A675">
+        <v>51569566</v>
+      </c>
+      <c r="B675">
+        <v>51569572</v>
+      </c>
+      <c r="C675">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="A676">
+        <v>51569572</v>
+      </c>
+      <c r="B676">
+        <v>51569579</v>
+      </c>
+      <c r="C676">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="A677">
+        <v>51569579</v>
+      </c>
+      <c r="B677">
+        <v>51569586</v>
+      </c>
+      <c r="C677">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678">
+        <v>51569586</v>
+      </c>
+      <c r="B678">
+        <v>51569594</v>
+      </c>
+      <c r="C678">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="A679">
+        <v>51569594</v>
+      </c>
+      <c r="B679">
+        <v>51569599</v>
+      </c>
+      <c r="C679">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680">
+        <v>51569599</v>
+      </c>
+      <c r="B680">
+        <v>51569607</v>
+      </c>
+      <c r="C680">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681">
+        <v>51569607</v>
+      </c>
+      <c r="B681">
+        <v>51569614</v>
+      </c>
+      <c r="C681">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3">
+      <c r="A682">
+        <v>51569614</v>
+      </c>
+      <c r="B682">
+        <v>51569621</v>
+      </c>
+      <c r="C682">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3">
+      <c r="A683">
+        <v>51569621</v>
+      </c>
+      <c r="B683">
+        <v>51569628</v>
+      </c>
+      <c r="C683">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3">
+      <c r="A684">
+        <v>51569628</v>
+      </c>
+      <c r="B684">
+        <v>51569634</v>
+      </c>
+      <c r="C684">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3">
+      <c r="A685">
+        <v>51569635</v>
+      </c>
+      <c r="B685">
+        <v>51569642</v>
+      </c>
+      <c r="C685">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3">
+      <c r="A686">
+        <v>51569642</v>
+      </c>
+      <c r="B686">
+        <v>51569649</v>
+      </c>
+      <c r="C686">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3">
+      <c r="A687">
+        <v>51569649</v>
+      </c>
+      <c r="B687">
+        <v>51569656</v>
+      </c>
+      <c r="C687">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3">
+      <c r="A688">
+        <v>51569656</v>
+      </c>
+      <c r="B688">
+        <v>51569663</v>
+      </c>
+      <c r="C688">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3">
+      <c r="A689">
+        <v>51569663</v>
+      </c>
+      <c r="B689">
+        <v>51569671</v>
+      </c>
+      <c r="C689">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3">
+      <c r="A690">
+        <v>51569671</v>
+      </c>
+      <c r="B690">
+        <v>51569678</v>
+      </c>
+      <c r="C690">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3">
+      <c r="A691">
+        <v>51569678</v>
+      </c>
+      <c r="B691">
+        <v>51569685</v>
+      </c>
+      <c r="C691">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3">
+      <c r="A692">
+        <v>51569685</v>
+      </c>
+      <c r="B692">
+        <v>51569692</v>
+      </c>
+      <c r="C692">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3">
+      <c r="A693">
+        <v>51569692</v>
+      </c>
+      <c r="B693">
+        <v>51569698</v>
+      </c>
+      <c r="C693">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3">
+      <c r="A694">
+        <v>51569698</v>
+      </c>
+      <c r="B694">
+        <v>51569704</v>
+      </c>
+      <c r="C694">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3">
+      <c r="A695">
+        <v>51569704</v>
+      </c>
+      <c r="B695">
+        <v>51569711</v>
+      </c>
+      <c r="C695">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3">
+      <c r="A696">
+        <v>51569711</v>
+      </c>
+      <c r="B696">
+        <v>51569718</v>
+      </c>
+      <c r="C696">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3">
+      <c r="A697">
+        <v>51569718</v>
+      </c>
+      <c r="B697">
+        <v>51569725</v>
+      </c>
+      <c r="C697">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3">
+      <c r="A698">
+        <v>51569725</v>
+      </c>
+      <c r="B698">
+        <v>51569732</v>
+      </c>
+      <c r="C698">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3">
+      <c r="A699">
+        <v>51569732</v>
+      </c>
+      <c r="B699">
+        <v>51569739</v>
+      </c>
+      <c r="C699">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3">
+      <c r="A700">
+        <v>51569739</v>
+      </c>
+      <c r="B700">
+        <v>51569747</v>
+      </c>
+      <c r="C700">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3">
+      <c r="A701">
+        <v>51569747</v>
+      </c>
+      <c r="B701">
+        <v>51569754</v>
+      </c>
+      <c r="C701">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3">
+      <c r="A702">
+        <v>51569754</v>
+      </c>
+      <c r="B702">
+        <v>51569761</v>
+      </c>
+      <c r="C702">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3">
+      <c r="A703">
+        <v>51569761</v>
+      </c>
+      <c r="B703">
+        <v>51569767</v>
+      </c>
+      <c r="C703">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3">
+      <c r="A704">
+        <v>51569767</v>
+      </c>
+      <c r="B704">
+        <v>51569775</v>
+      </c>
+      <c r="C704">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3">
+      <c r="A705">
+        <v>51569775</v>
+      </c>
+      <c r="B705">
+        <v>51569783</v>
+      </c>
+      <c r="C705">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3">
+      <c r="A706">
+        <v>51569783</v>
+      </c>
+      <c r="B706">
+        <v>51569790</v>
+      </c>
+      <c r="C706">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3">
+      <c r="A707">
+        <v>51569790</v>
+      </c>
+      <c r="B707">
+        <v>51569798</v>
+      </c>
+      <c r="C707">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3">
+      <c r="A708">
+        <v>51569798</v>
+      </c>
+      <c r="B708">
+        <v>51569803</v>
+      </c>
+      <c r="C708">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3">
+      <c r="A709">
+        <v>51569803</v>
+      </c>
+      <c r="B709">
+        <v>51569810</v>
+      </c>
+      <c r="C709">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3">
+      <c r="A710">
+        <v>51569810</v>
+      </c>
+      <c r="B710">
+        <v>51569817</v>
+      </c>
+      <c r="C710">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3">
+      <c r="A711">
+        <v>51569817</v>
+      </c>
+      <c r="B711">
+        <v>51569824</v>
+      </c>
+      <c r="C711">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3">
+      <c r="A712">
+        <v>51569824</v>
+      </c>
+      <c r="B712">
+        <v>51569831</v>
+      </c>
+      <c r="C712">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3">
+      <c r="A713">
+        <v>51569831</v>
+      </c>
+      <c r="B713">
+        <v>51569838</v>
+      </c>
+      <c r="C713">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3">
+      <c r="A714">
+        <v>51569838</v>
+      </c>
+      <c r="B714">
+        <v>51569844</v>
+      </c>
+      <c r="C714">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3">
+      <c r="A715">
+        <v>51569844</v>
+      </c>
+      <c r="B715">
+        <v>51569852</v>
+      </c>
+      <c r="C715">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3">
+      <c r="A716">
+        <v>51569852</v>
+      </c>
+      <c r="B716">
+        <v>51569859</v>
+      </c>
+      <c r="C716">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3">
+      <c r="A717">
+        <v>51569859</v>
+      </c>
+      <c r="B717">
+        <v>51569866</v>
+      </c>
+      <c r="C717">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3">
+      <c r="A718">
+        <v>51569866</v>
+      </c>
+      <c r="B718">
+        <v>51569874</v>
+      </c>
+      <c r="C718">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3">
+      <c r="A719">
+        <v>51569874</v>
+      </c>
+      <c r="B719">
+        <v>51569881</v>
+      </c>
+      <c r="C719">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3">
+      <c r="A720">
+        <v>51569881</v>
+      </c>
+      <c r="B720">
+        <v>51569888</v>
+      </c>
+      <c r="C720">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3">
+      <c r="A721">
+        <v>51569888</v>
+      </c>
+      <c r="B721">
+        <v>51569895</v>
+      </c>
+      <c r="C721">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3">
+      <c r="A722">
+        <v>51569895</v>
+      </c>
+      <c r="B722">
+        <v>51569901</v>
+      </c>
+      <c r="C722">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
+      <c r="A723">
+        <v>51569901</v>
+      </c>
+      <c r="B723">
+        <v>51569907</v>
+      </c>
+      <c r="C723">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
+      <c r="A724">
+        <v>51569907</v>
+      </c>
+      <c r="B724">
+        <v>51569914</v>
+      </c>
+      <c r="C724">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3">
+      <c r="A725">
+        <v>51569914</v>
+      </c>
+      <c r="B725">
+        <v>51569922</v>
+      </c>
+      <c r="C725">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
+      <c r="A726">
+        <v>51569922</v>
+      </c>
+      <c r="B726">
+        <v>51569928</v>
+      </c>
+      <c r="C726">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
+      <c r="A727">
+        <v>51569928</v>
+      </c>
+      <c r="B727">
+        <v>51569935</v>
+      </c>
+      <c r="C727">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3">
+      <c r="A728">
+        <v>51569935</v>
+      </c>
+      <c r="B728">
+        <v>51569942</v>
+      </c>
+      <c r="C728">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3">
+      <c r="A729">
+        <v>51569942</v>
+      </c>
+      <c r="B729">
+        <v>51569950</v>
+      </c>
+      <c r="C729">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3">
+      <c r="A730">
+        <v>51569950</v>
+      </c>
+      <c r="B730">
+        <v>51569957</v>
+      </c>
+      <c r="C730">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3">
+      <c r="A731">
+        <v>51569957</v>
+      </c>
+      <c r="B731">
+        <v>51569964</v>
+      </c>
+      <c r="C731">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3">
+      <c r="A732">
+        <v>51569964</v>
+      </c>
+      <c r="B732">
+        <v>51569970</v>
+      </c>
+      <c r="C732">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3">
+      <c r="A733">
+        <v>51569970</v>
+      </c>
+      <c r="B733">
+        <v>51569977</v>
+      </c>
+      <c r="C733">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3">
+      <c r="A734">
+        <v>51569977</v>
+      </c>
+      <c r="B734">
+        <v>51569984</v>
+      </c>
+      <c r="C734">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3">
+      <c r="A735">
+        <v>51569984</v>
+      </c>
+      <c r="B735">
+        <v>51569991</v>
+      </c>
+      <c r="C735">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3">
+      <c r="A736">
+        <v>51569991</v>
+      </c>
+      <c r="B736">
+        <v>51569999</v>
+      </c>
+      <c r="C736">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
+      <c r="A737">
+        <v>51569999</v>
+      </c>
+      <c r="B737">
+        <v>51570005</v>
+      </c>
+      <c r="C737">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3">
+      <c r="A738">
+        <v>51570005</v>
+      </c>
+      <c r="B738">
+        <v>51570011</v>
+      </c>
+      <c r="C738">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3">
+      <c r="A739">
+        <v>51570011</v>
+      </c>
+      <c r="B739">
+        <v>51570018</v>
+      </c>
+      <c r="C739">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3">
+      <c r="A740">
+        <v>51570018</v>
+      </c>
+      <c r="B740">
+        <v>51570025</v>
+      </c>
+      <c r="C740">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3">
+      <c r="A741">
+        <v>51570025</v>
+      </c>
+      <c r="B741">
+        <v>51570032</v>
+      </c>
+      <c r="C741">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3">
+      <c r="A742">
+        <v>51570032</v>
+      </c>
+      <c r="B742">
+        <v>51570039</v>
+      </c>
+      <c r="C742">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3">
+      <c r="A743">
+        <v>51570039</v>
+      </c>
+      <c r="B743">
+        <v>51570047</v>
+      </c>
+      <c r="C743">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3">
+      <c r="A744">
+        <v>51570047</v>
+      </c>
+      <c r="B744">
+        <v>51570054</v>
+      </c>
+      <c r="C744">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3">
+      <c r="A745">
+        <v>51570054</v>
+      </c>
+      <c r="B745">
+        <v>51570062</v>
+      </c>
+      <c r="C745">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3">
+      <c r="A746">
+        <v>51570062</v>
+      </c>
+      <c r="B746">
+        <v>51570069</v>
+      </c>
+      <c r="C746">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3">
+      <c r="A747">
+        <v>51570069</v>
+      </c>
+      <c r="B747">
+        <v>51570076</v>
+      </c>
+      <c r="C747">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3">
+      <c r="A748">
+        <v>51570076</v>
+      </c>
+      <c r="B748">
+        <v>51570083</v>
+      </c>
+      <c r="C748">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3">
+      <c r="A749">
+        <v>51570083</v>
+      </c>
+      <c r="B749">
+        <v>51570090</v>
+      </c>
+      <c r="C749">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3">
+      <c r="A750">
+        <v>51570090</v>
+      </c>
+      <c r="B750">
+        <v>51570098</v>
+      </c>
+      <c r="C750">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3">
+      <c r="A751">
+        <v>51570098</v>
+      </c>
+      <c r="B751">
+        <v>51570104</v>
+      </c>
+      <c r="C751">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3">
+      <c r="A752">
+        <v>51570104</v>
+      </c>
+      <c r="B752">
+        <v>51570110</v>
+      </c>
+      <c r="C752">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3">
+      <c r="A753">
+        <v>51570110</v>
+      </c>
+      <c r="B753">
+        <v>51570116</v>
+      </c>
+      <c r="C753">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3">
+      <c r="A754">
+        <v>51570116</v>
+      </c>
+      <c r="B754">
+        <v>51570123</v>
+      </c>
+      <c r="C754">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3">
+      <c r="A755">
+        <v>51570123</v>
+      </c>
+      <c r="B755">
+        <v>51570130</v>
+      </c>
+      <c r="C755">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3">
+      <c r="A756">
+        <v>51570130</v>
+      </c>
+      <c r="B756">
+        <v>51570138</v>
+      </c>
+      <c r="C756">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3">
+      <c r="A757">
+        <v>51570138</v>
+      </c>
+      <c r="B757">
+        <v>51570145</v>
+      </c>
+      <c r="C757">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3">
+      <c r="A758">
+        <v>51570145</v>
+      </c>
+      <c r="B758">
+        <v>51570153</v>
+      </c>
+      <c r="C758">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3">
+      <c r="A759">
+        <v>51570153</v>
+      </c>
+      <c r="B759">
+        <v>51570160</v>
+      </c>
+      <c r="C759">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3">
+      <c r="A760">
+        <v>51570160</v>
+      </c>
+      <c r="B760">
+        <v>51570167</v>
+      </c>
+      <c r="C760">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3">
+      <c r="A761">
+        <v>51570167</v>
+      </c>
+      <c r="B761">
+        <v>51570174</v>
+      </c>
+      <c r="C761">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3">
+      <c r="A762">
+        <v>51570174</v>
+      </c>
+      <c r="B762">
+        <v>51570181</v>
+      </c>
+      <c r="C762">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3">
+      <c r="A763">
+        <v>51570181</v>
+      </c>
+      <c r="B763">
+        <v>51570188</v>
+      </c>
+      <c r="C763">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3">
+      <c r="A764">
+        <v>51570188</v>
+      </c>
+      <c r="B764">
+        <v>51570196</v>
+      </c>
+      <c r="C764">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3">
+      <c r="A765">
+        <v>51570196</v>
+      </c>
+      <c r="B765">
+        <v>51570203</v>
+      </c>
+      <c r="C765">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3">
+      <c r="A766">
+        <v>51570203</v>
+      </c>
+      <c r="B766">
+        <v>51570209</v>
+      </c>
+      <c r="C766">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3">
+      <c r="A767">
+        <v>51570209</v>
+      </c>
+      <c r="B767">
+        <v>51570215</v>
+      </c>
+      <c r="C767">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3">
+      <c r="A768">
+        <v>51570215</v>
+      </c>
+      <c r="B768">
+        <v>51570223</v>
+      </c>
+      <c r="C768">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3">
+      <c r="A769">
+        <v>51570223</v>
+      </c>
+      <c r="B769">
+        <v>51570230</v>
+      </c>
+      <c r="C769">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3">
+      <c r="A770">
+        <v>51570230</v>
+      </c>
+      <c r="B770">
+        <v>51570238</v>
+      </c>
+      <c r="C770">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3">
+      <c r="A771">
+        <v>51570238</v>
+      </c>
+      <c r="B771">
+        <v>51570246</v>
+      </c>
+      <c r="C771">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3">
+      <c r="A772">
+        <v>51570246</v>
+      </c>
+      <c r="B772">
+        <v>51570253</v>
+      </c>
+      <c r="C772">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3">
+      <c r="A773">
+        <v>51570253</v>
+      </c>
+      <c r="B773">
+        <v>51570260</v>
+      </c>
+      <c r="C773">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3">
+      <c r="A774">
+        <v>51570260</v>
+      </c>
+      <c r="B774">
+        <v>51570267</v>
+      </c>
+      <c r="C774">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3">
+      <c r="A775">
+        <v>51570267</v>
+      </c>
+      <c r="B775">
+        <v>51570274</v>
+      </c>
+      <c r="C775">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3">
+      <c r="A776">
+        <v>51570274</v>
+      </c>
+      <c r="B776">
+        <v>51570282</v>
+      </c>
+      <c r="C776">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3">
+      <c r="A777">
+        <v>51570282</v>
+      </c>
+      <c r="B777">
+        <v>51570289</v>
+      </c>
+      <c r="C777">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3">
+      <c r="A778">
+        <v>51570289</v>
+      </c>
+      <c r="B778">
+        <v>51570296</v>
+      </c>
+      <c r="C778">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3">
+      <c r="A779">
+        <v>51570296</v>
+      </c>
+      <c r="B779">
+        <v>51570304</v>
+      </c>
+      <c r="C779">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3">
+      <c r="A780">
+        <v>51570304</v>
+      </c>
+      <c r="B780">
+        <v>51570310</v>
+      </c>
+      <c r="C780">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3">
+      <c r="A781">
+        <v>51570310</v>
+      </c>
+      <c r="B781">
+        <v>51570316</v>
+      </c>
+      <c r="C781">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3">
+      <c r="A782">
+        <v>51570316</v>
+      </c>
+      <c r="B782">
+        <v>51570323</v>
+      </c>
+      <c r="C782">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3">
+      <c r="A783">
+        <v>51570323</v>
+      </c>
+      <c r="B783">
+        <v>51570330</v>
+      </c>
+      <c r="C783">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3">
+      <c r="A784">
+        <v>51570330</v>
+      </c>
+      <c r="B784">
+        <v>51570337</v>
+      </c>
+      <c r="C784">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3">
+      <c r="A785">
+        <v>51570337</v>
+      </c>
+      <c r="B785">
+        <v>51570344</v>
+      </c>
+      <c r="C785">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3">
+      <c r="A786">
+        <v>51570344</v>
+      </c>
+      <c r="B786">
+        <v>51570351</v>
+      </c>
+      <c r="C786">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3">
+      <c r="A787">
+        <v>51570351</v>
+      </c>
+      <c r="B787">
+        <v>51570359</v>
+      </c>
+      <c r="C787">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3">
+      <c r="A788">
+        <v>51570359</v>
+      </c>
+      <c r="B788">
+        <v>51570366</v>
+      </c>
+      <c r="C788">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3">
+      <c r="A789">
+        <v>51570366</v>
+      </c>
+      <c r="B789">
+        <v>51570373</v>
+      </c>
+      <c r="C789">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3">
+      <c r="A790">
+        <v>51570373</v>
+      </c>
+      <c r="B790">
+        <v>51570380</v>
+      </c>
+      <c r="C790">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3">
+      <c r="A791">
+        <v>51570380</v>
+      </c>
+      <c r="B791">
+        <v>51570387</v>
+      </c>
+      <c r="C791">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3">
+      <c r="A792">
+        <v>51570387</v>
+      </c>
+      <c r="B792">
+        <v>51570394</v>
+      </c>
+      <c r="C792">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3">
+      <c r="A793">
+        <v>51570394</v>
+      </c>
+      <c r="B793">
+        <v>51570402</v>
+      </c>
+      <c r="C793">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3">
+      <c r="A794">
+        <v>51570402</v>
+      </c>
+      <c r="B794">
+        <v>51570409</v>
+      </c>
+      <c r="C794">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3">
+      <c r="A795">
+        <v>51570409</v>
+      </c>
+      <c r="B795">
+        <v>51570415</v>
+      </c>
+      <c r="C795">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3">
+      <c r="A796">
+        <v>51570415</v>
+      </c>
+      <c r="B796">
+        <v>51570421</v>
+      </c>
+      <c r="C796">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3">
+      <c r="A797">
+        <v>51570421</v>
+      </c>
+      <c r="B797">
+        <v>51570428</v>
+      </c>
+      <c r="C797">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3">
+      <c r="A798">
+        <v>51570428</v>
+      </c>
+      <c r="B798">
+        <v>51570435</v>
+      </c>
+      <c r="C798">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3">
+      <c r="A799">
+        <v>51570435</v>
+      </c>
+      <c r="B799">
+        <v>51570442</v>
+      </c>
+      <c r="C799">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3">
+      <c r="A800">
+        <v>51570442</v>
+      </c>
+      <c r="B800">
+        <v>51570449</v>
+      </c>
+      <c r="C800">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3">
+      <c r="A801">
+        <v>51570449</v>
+      </c>
+      <c r="B801">
+        <v>51570456</v>
+      </c>
+      <c r="C801">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3">
+      <c r="B802">
+        <v>0.007114999999999955</v>
+      </c>
+      <c r="C802" t="s">
         <v>3</v>
       </c>
     </row>
